--- a/datasets/discography_data.xlsx
+++ b/datasets/discography_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>Rhinestone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Xero" (1997)(as Xero)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/1984.html</t>
+          <t>/lyrics/linkinpark/rhinestone.html</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Another You</t>
+          <t>Reading My Eyes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Xero" (1997)(as Xero)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/anotheryou.html</t>
+          <t>/lyrics/linkinpark/readingmyeyes.html</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>By My Side</t>
+          <t>Fuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Xero" (1997)(as Xero)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/bymyside.html</t>
+          <t>/lyrics/linkinpark/fuse.html</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chill With You</t>
+          <t>Stick N Move</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Xero" (1997)(as Xero)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/chillwithyou.html</t>
+          <t>/lyrics/linkinpark/sticknmove.html</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Come With Me</t>
+          <t>Carousel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/comewithme.html</t>
+          <t>/lyrics/linkinpark/carousel.html</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Easy To Adore You</t>
+          <t>Technique (Short)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/easytoadoreyou.html</t>
+          <t>/lyrics/linkinpark/techniqueshort.html</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Falling</t>
+          <t>Step Up</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/falling.html</t>
+          <t>/lyrics/linkinpark/stepup.html</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Golden Days</t>
+          <t>And One</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/goldendays.html</t>
+          <t>/lyrics/linkinpark/andone.html</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>High Voltage</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/hearts.html</t>
+          <t>/lyrics/linkinpark/highvoltageepversion.html</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Here Comes The Sun</t>
+          <t>Part Of Me</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/herecomesthesun.html</t>
+          <t>/lyrics/linkinpark/partofme.html</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>I Miss You</t>
+          <t>Untitled</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/imissyou.html</t>
+          <t>/lyrics/linkinpark/untitled.html</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>In Love Late At Night</t>
+          <t>Super Xero (By Myself Demo)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/inlovelateatnight.html</t>
+          <t>/lyrics/linkinpark/superxero.html</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>In The Morning</t>
+          <t>Points And Authority (Demo)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/inthemorning.html</t>
+          <t>/lyrics/linkinpark/pointsandauthoritydemo.html</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>In The Rain</t>
+          <t>Crawling (Demo, Edit)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/intherain.html</t>
+          <t>/lyrics/linkinpark/crawlingdemoedit.html</t>
         </is>
       </c>
     </row>
@@ -811,22 +811,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Into The Sun</t>
+          <t>She Couldnt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/intothesun.html</t>
+          <t>/lyrics/linkinpark/shecouldnt.html</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Just Stay</t>
+          <t>Carousel (Demo)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/juststay.html</t>
+          <t>/lyrics/linkinpark/carouseldemo.html</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Last Train Home</t>
+          <t>Part Of Me (Demo)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/lasttrainhome.html</t>
+          <t>/lyrics/linkinpark/partofmedemo.html</t>
         </is>
       </c>
     </row>
@@ -886,22 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Light In Your Shadow</t>
+          <t>And One</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/lightinyourshadow.html</t>
+          <t>/lyrics/linkinpark/andone.html</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Light The Night</t>
+          <t>Papercut</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/lightthenight.html</t>
+          <t>/lyrics/linkinpark/papercut.html</t>
         </is>
       </c>
     </row>
@@ -936,22 +936,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lighthouse</t>
+          <t>One Step Closer</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/lighthouse.html</t>
+          <t>/lyrics/linkinpark/onestepcloser.html</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Like A Dream</t>
+          <t>With You</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/likeadream.html</t>
+          <t>/lyrics/linkinpark/withyou.html</t>
         </is>
       </c>
     </row>
@@ -986,22 +986,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Live A Life You Will Remember</t>
+          <t>Points Of Authority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/livealifeyouwillremember.html</t>
+          <t>/lyrics/linkinpark/pointsofauthority.html</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lost &amp; Found</t>
+          <t>Crawling</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/lostfound.html</t>
+          <t>/lyrics/linkinpark/crawling.html</t>
         </is>
       </c>
     </row>
@@ -1036,22 +1036,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Love Letters</t>
+          <t>Runaway</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/loveletters.html</t>
+          <t>/lyrics/linkinpark/runaway.html</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Love So Hardcore</t>
+          <t>By Myself</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/lovesohardcore.html</t>
+          <t>/lyrics/linkinpark/bymyself.html</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Malibu</t>
+          <t>In The End</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/malibu.html</t>
+          <t>/lyrics/linkinpark/intheend.html</t>
         </is>
       </c>
     </row>
@@ -1111,22 +1111,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Miracles</t>
+          <t>A Place For My Head</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/miracles.html</t>
+          <t>/lyrics/linkinpark/aplaceformyhead.html</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nightsky</t>
+          <t>Forgotten</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/nightsky.html</t>
+          <t>/lyrics/linkinpark/forgotten.html</t>
         </is>
       </c>
     </row>
@@ -1161,22 +1161,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Not Alone</t>
+          <t>Cure For The Itch</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/notalone.html</t>
+          <t>/lyrics/linkinpark/curefortheitch.html</t>
         </is>
       </c>
     </row>
@@ -1186,22 +1186,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>On My Mind</t>
+          <t>Pushing Me Away</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/onmymind.html</t>
+          <t>/lyrics/linkinpark/pushingmeaway.html</t>
         </is>
       </c>
     </row>
@@ -1211,22 +1211,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Peace Of Mind</t>
+          <t>High Voltage(Bonus Track)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Hybrid Theory" (2000)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/peaceofmind.html</t>
+          <t>/lyrics/linkinpark/highvoltage.html</t>
         </is>
       </c>
     </row>
@@ -1236,22 +1236,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Running Through The Night</t>
+          <t>Pts.Of.Athrty</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/runningthroughthenight.html</t>
+          <t>/lyrics/linkinpark/ptsofathrty.html</t>
         </is>
       </c>
     </row>
@@ -1261,22 +1261,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>So Good</t>
+          <t>Enth E Nd</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/sogood.html</t>
+          <t>/lyrics/linkinpark/enthend.html</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Somebody Like You</t>
+          <t>Chali</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/somebodylikeyou.html</t>
+          <t>/lyrics/linkinpark/chali.html</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Summer Stars</t>
+          <t>Frgt/10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/summerstars.html</t>
+          <t>/lyrics/linkinpark/frgt10.html</t>
         </is>
       </c>
     </row>
@@ -1336,22 +1336,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sweet Child O' Mine</t>
+          <t>P5hng Me A*wy</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/sweetchildomine.html</t>
+          <t>/lyrics/linkinpark/p5hngmeawy.html</t>
         </is>
       </c>
     </row>
@@ -1361,22 +1361,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Take Me Dancing</t>
+          <t>Plc.4 Mie Haed</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/takemedancing.html</t>
+          <t>/lyrics/linkinpark/plc4miehaed.html</t>
         </is>
       </c>
     </row>
@@ -1386,22 +1386,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tell The Truth</t>
+          <t>X-Ecutioner Style</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/tellthetruth.html</t>
+          <t>/lyrics/linkinpark/xecutionerstyle.html</t>
         </is>
       </c>
     </row>
@@ -1411,22 +1411,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Thank You</t>
+          <t>H! Vltg3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/thankyou.html</t>
+          <t>/lyrics/linkinpark/hvltg3.html</t>
         </is>
       </c>
     </row>
@@ -1436,22 +1436,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The River</t>
+          <t>Riff Raff</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/theriver.html</t>
+          <t>/lyrics/linkinpark/riffraff.html</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1461,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The Sun</t>
+          <t>Wth&gt;You</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/thesun.html</t>
+          <t>/lyrics/linkinpark/wthyou.html</t>
         </is>
       </c>
     </row>
@@ -1486,22 +1486,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>PPr:Kut</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/travel.html</t>
+          <t>/lyrics/linkinpark/pprkut.html</t>
         </is>
       </c>
     </row>
@@ -1511,22 +1511,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Upside Down</t>
+          <t>Rnw@y</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/upsidedown.html</t>
+          <t>/lyrics/linkinpark/rnwy.html</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Use A Wish</t>
+          <t>My&lt;Dsmbr</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/useawish.html</t>
+          <t>/lyrics/linkinpark/mydsmbr.html</t>
         </is>
       </c>
     </row>
@@ -1561,22 +1561,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Wake Up With You</t>
+          <t>Stef</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/wakeupwithyou.html</t>
+          <t>/lyrics/linkinpark/stef.html</t>
         </is>
       </c>
     </row>
@@ -1586,22 +1586,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Walk Alone</t>
+          <t>By_Myslf</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/walkalone.html</t>
+          <t>/lyrics/linkinpark/bymyslf.html</t>
         </is>
       </c>
     </row>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>When The Sun Goes Down</t>
+          <t>Kyur4 Th Ich</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/whenthesungoesdown.html</t>
+          <t>/lyrics/linkinpark/kyur4thich.html</t>
         </is>
       </c>
     </row>
@@ -1636,22 +1636,5523 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Your Words</t>
+          <t>1stp Klosr</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mauve Lyrics</t>
+          <t>Linkin Park Lyrics</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>album: "Reanimation" (2002)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>/lyrics/mauve/yourwords.html</t>
+          <t>/lyrics/linkinpark/1stpklosr.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Krwlng</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>album: "Reanimation" (2002)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/krwlng.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Foreword(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Dont Stay</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/dontstay.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Somewhere I Belong</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/somewhereibelong.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lying From You</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/lyingfromyou.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hit The Floor</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/hitthefloor.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Easier To Run</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/easiertorun.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Faint</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/faint.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Figure.09</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/figure09.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Breaking The Habit</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/breakingthehabit.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>From The Inside</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/fromtheinside.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nobodys Listening</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/nobodyslistening.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Session(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Numb</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/numb.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Standing In The Middle(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/standinginthemiddle.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Lost(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/lost.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Fighting Myself(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/fightingmyself.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>More The Victim(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/morethevictim.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Massive(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/massive.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Healing Foot(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/healingfoot.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>A6 (Meteora20 Demo)(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/a6meteora20demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Cuidado (Lying From You Demo)(20th Anniversary Edition Bonus Track, Instrumental)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Husky (Hit The Floor Demo)(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/huskyhitthefloordemo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Interrogation (Easier To Run Demo)(20th Anniversary Edition Bonus Track, Instrumental)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Faint (Meteora20 Demo)(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/faintmeteora20demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Plaster 2 (Figure.09 Demo)(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/plaster2figure09demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Shifter (From The Inside Demo)(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/shifterfromtheinsidedemo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Wesside(20th Anniversary Edition Bonus Track, Instrumental)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Resolution(20th Anniversary Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>album: "Meteora" (2003)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/resolution.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Dirt Off Your Shoulder / Lying From You</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/dirtoffyourshoulderlyingfromyou.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Big Pimpin / Papercut</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/bigpimpinpapercut.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Jigga What / Faint</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/jiggawhatfaint.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Numb / Encore</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/numbencore.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Izzo / In The End</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/izzointheend.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Points Of Authority / 99 Problems / One Step Closer</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/pointsofauthority99problemsonestepcloser.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Wake(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Given Up</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/givenup.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Leave Out All The Rest</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/leaveoutalltherest.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Bleed It Out</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/bleeditout.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Shadow Of The Day</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/shadowoftheday.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>What Ive Done</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/whativedone.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Hands Held High</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/handsheldhigh.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>No More Sorrow</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/nomoresorrow.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Valentines Day</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/valentinesday.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>In Between</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/inbetween.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>In Pieces</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/inpieces.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>The Little Things Give You Away</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/thelittlethingsgiveyouaway.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>No Roads Left(B-side)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>album: "Minutes To Midnight" (2007)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/noroadsleft.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>You Aint Gotsta Gotsta</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/youaintgotstagotsta.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Bubbles</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/bubbles.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>No Laundry</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/nolaundry.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Da Bloos</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/dabloos.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PB N Jellyfish</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/pbnjellyfish.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>26 Lettaz In Da Alphabet</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/26lettazindaalphabet.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>A-Six (Original Long Version 2002)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>demo: "Underground 9: Demos" (2009)</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Faint (2002 Demo)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>demo: "Underground 9: Demos" (2009)</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/faint2002demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Sad (By Myself 1999 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>demo: "Underground 9: Demos" (2009)</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Fear (Leave Out All The Rest 2002 Demo)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>demo: "Underground 9: Demos" (2009)</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/fearleaveoutalltherest2002demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Figure.09 (2002 Demo)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>demo: "Underground 9: Demos" (2009)</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/figure092002demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Stick And Move (Runaway 1998 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>demo: "Underground 9: Demos" (2009)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Across The Line (Unreleased 2007 Demo)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>demo: "Underground 9: Demos" (2009)</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/acrossthelineunreleased2007demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Drawing (Breaking The Habit 2002 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>demo: "Underground 9: Demos" (2009)</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Drum Song (Little Things Give You Away 2006 Demo)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>demo: "Underground 9: Demos" (2009)</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/drumsonglittlethingsgiveyouaway2006demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Announcement Service Public</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>compilation: "A Decade Underground" (2010)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/announcementservicepublic.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Qwerty</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>compilation: "A Decade Underground" (2010)</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/qwerty.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>And One</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>compilation: "A Decade Underground" (2010)</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/andone.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Sold My Soul To Yo Mama</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>compilation: "A Decade Underground" (2010)</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/soldmysoultoyomama.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Dedicated</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>compilation: "A Decade Underground" (2010)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/dedicated.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Hunger Strike</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>compilation: "A Decade Underground" (2010)</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/hungerstrike.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>My December</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>compilation: "A Decade Underground" (2010)</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/mydecember.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Part Of Me</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>compilation: "A Decade Underground" (2010)</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/partofme.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Across The Line</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>compilation: "A Decade Underground" (2010)</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/acrosstheline.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Pretend To Be</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>compilation: "A Decade Underground" (2010)</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/pretendtobe.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>The Requiem</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/therequiem.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>The Radiance</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/theradiance.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Burning In The Skies</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/burningintheskies.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Empty Spaces(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>When They Come For Me</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/whentheycomeforme.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Robot Boy</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/robotboy.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Jornada Del Muerto</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/jornadadelmuerto.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Waiting For The End</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/waitingfortheend.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Blackout</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/blackout.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Wretches And Kings</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/wretchesandkings.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Wisdom, Justice And Love</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/wisdomjusticeandlove.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Iridescent</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/iridescent.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Fallout</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/fallout.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>The Catalyst</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/thecatalyst.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>The Messenger</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/themessenger.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Blackbirds(2013 iTunes Deluxe Edition Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>album: "A Thousand Suns" (2010)</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/blackbirds.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Unfortunate (2002 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>demo: "Underground X: Demos" (2010)</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>What We Dont Know (2007 Demo)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>demo: "Underground X: Demos" (2010)</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/whatwedontknow2007demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Oh No (Points Of Authority Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>demo: "Underground X: Demos" (2010)</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>I Have Not Begun (2009 Demo)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>demo: "Underground X: Demos" (2010)</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/ihavenotbegun2009demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Pale (2006 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>demo: "Underground X: Demos" (2010)</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Pretend To Be (2008 Demo)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>demo: "Underground X: Demos" (2010)</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/pretendtobe2008demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Divided (2005 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>demo: "Underground X: Demos" (2010)</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>What Ive Done (Mike Shinoda Remix)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>demo: "Underground X: Demos" (2010)</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/whativedonemikeshinodaremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Coal (1997 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>demo: "Underground X: Demos" (2010)</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Halo (2002 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>demo: "Underground X: Demos" (2010)</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>YO (MTM Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>demo: "Underground Eleven" (2011)</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Slip (1998 Unreleased Hybrid Theory Demo)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>demo: "Underground Eleven" (2011)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/slip1998unreleasedhybridtheorydemo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Soundtrack (Meteora Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>demo: "Underground Eleven" (2011)</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>In The End (Demo)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>demo: "Underground Eleven" (2011)</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/intheenddemo217408.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Program (Meteora Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>demo: "Underground Eleven" (2011)</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Bang Three (What Ive Done Original Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>demo: "Underground Eleven" (2011)</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Robot Boy (Test Mix, Option Vocal Take)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>demo: "Underground Eleven" (2011)</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/robotboytestmixoptionvocaltake.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Broken Foot (Meteora Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>demo: "Underground Eleven" (2011)</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Esaul (A Place For My Head Demo)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>demo: "Underground Eleven" (2011)</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/esaulaplaceformyheaddemo217413.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Blue (1998 Unreleased Hybrid Theory Demo)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>demo: "Underground Eleven" (2011)</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/blue1998unreleasedhybridtheorydemo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Lost In The Echo</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/lostintheecho.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>In My Remains</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/inmyremains.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Burn It Down</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/burnitdown.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Lies Greed Misery</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/liesgreedmisery.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Ill Be Gone</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/illbegone.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Castle Of Glass</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/castleofglass.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Victimized</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/victimized.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Roads Untraveled</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/roadsuntraveled.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Skin To Bone</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/skintobone.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Until It Breaks</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/untilitbreaks.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Tinfoil(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Powerless</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>album: "Living Things" (2012)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/powerless.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Homecoming (Minutes To Midnight Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 12.0" (2012)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Points Of Authority (Demo)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 12.0" (2012)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/pointsofauthoritydemo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Clarity (Minutes To Midnight Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 12.0" (2012)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Asbestos (Minutes To Midnight Demo)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 12.0" (2012)</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/asbestosminutestomidnightdemo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Bunker (Minutes To Midnight Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 12.0" (2012)</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>So Far Away (Unreleased 1998)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 12.0" (2012)</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/sofarawayunreleased1998.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Pepper (Meteora Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 12.0" (2012)</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Debris (Minutes To Midnight Demo)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 12.0" (2012)</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/debrisminutestomidnightdemo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Ominous (Meteora Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 12.0" (2012)</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Forgotten (Demo)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 12.0" (2012)</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/forgottendemo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>A Light That Never Comes</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/alightthatnevercomes.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Castle Of Glass (M. Shinoda Remix)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/castleofglassmshinodaremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Lost In The Echo (Killsonik Remix)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/lostintheechokillsonikremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Victimized (M. Shinoda Remix)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/victimizedmshinodaremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Ill Be Gone (Vice Remix)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/illbegoneviceremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Lies Greed Misery (Dirtyphonics Remix)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/liesgreedmiserydirtyphonicsremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Roads Untraveled (Rad Omen Remix)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/roadsuntraveledradomenremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Powerless (Enferno Remix)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/powerlessenfernoremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Burn It Down (Tom Swoon Remix)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/burnitdowntomswoonremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Until It Breaks (Datsik Remix)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/untilitbreaksdatsikremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Skin To Bone (Nick Catchdubs Remix)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/skintobonenickcatchdubsremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Ill Be Gone (Schoolboy Remix)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/illbegoneschoolboyremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Until It Breaks (Money Mark Headphone Remix)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/untilitbreaksmoneymarkheadphoneremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>A Light That Never Comes (Rick Rubin Remix)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/alightthatnevercomesrickrubinremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Burn It Down (Paul Van Dyk Remix)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>remix album: "Recharged" (2013)</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/burnitdownpaulvandykremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Primo (Ill Be Gone, Longform 2010 Demo)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground XIII" (2013)(LPU XIII)</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/primoillbegonelongform2010demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Apaches (Until It Breaks Demo, No. 1)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground XIII" (2013)(LPU XIII)</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/apachesuntilitbreaksdemono1.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Foot Patrol (Until It Breaks Demo, No. 2)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground XIII" (2013)(LPU XIII)</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/footpatroluntilitbreaksdemono2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Three Band Terror (Until It Breaks, No. 3)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground XIII" (2013)(LPU XIII)</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/threebandterroruntilitbreaksno3.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Change (By Beta State, LPU Sessions 2013)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground XIII" (2013)(LPU XIII)</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/changebybetastatelpusessions2013.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Keys To The Kingdom</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/keystothekingdom.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>All For Nothing</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/allfornothing.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Guilty All The Same</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/guiltyallthesame.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>The Summoning(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>War</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/war.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Wastelands</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/wastelands.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Until Its Gone</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/untilitsgone.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/rebellion.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Mark The Graves</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/markthegraves.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Drawbar(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Final Masquerade</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/finalmasquerade.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>A Line In The Sand</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>album: "The Hunting Party" (2014)</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/alineinthesand.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Breaking The Habit (Original Mike 2002 Demo)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground XIV" (2014)(LPU XIV)</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/breakingthehabitoriginalmike2002demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Dave Sbeat</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground XIV" (2014)(LPU XIV)</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/davesbeat.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>White Noise</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/whitenoise.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Jeff Walks(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Mall Blueprint(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Jeff Makes Observations(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Mal Rx7(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Barrys Story(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Changing Room Tease(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Danny In Police Car - Mal Gears Up(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Mal Gives Barry Second Chance - Mal Unloads(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Mall Carnage - Mal Stalked(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>It Goes Through</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/itgoesthrough.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Cops Arrive(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Dannys Lucky Day(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Jeff Philosophizes To Donna(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Jeff And Donna Connect(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Jeff Trips In The Mirror(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Adele And Danny In The Backseat(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Mal Vs. Helicopter(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Devils Drop</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/devilsdrop.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>TV Comes To Life - Mal And Jeff(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>The Last Line</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/thelastline.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Danny Goes Home(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Dancer(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Animals (2011 Demo)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/animals2011demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Basil (2008 Demo)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/basil2008demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Pods 1 Of 3 (1998 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Pods 2 Of 3 (1998 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Pods 3 Of 3 (1998 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Chance Of Rain (2006 Demo)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/chanceofrain2006demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>TooLeGit (2010 Demo)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/toolegit2010demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Grudgematch (2009 Demo)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/grudgematch2009demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Hurry (1999 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>GRR (1999 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Attached (2003 Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Chair (1999 "Part Of Me" Demo)(Instrumental)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>demo: "LP Underground 15" (2015)</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>The Catalyst (2010 Demo)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>EP: "Underground Sixteen" (2016)</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/thecatalyst2010demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Bleed It Out (2007 Demo)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>EP: "Underground Sixteen" (2016)</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/bleeditout2007demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Lies Greed Misery (2010 Demo)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>EP: "Underground Sixteen" (2016)</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/liesgreedmisery2010demo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Nobody Can Save Me</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>album: "One More Light" (2017)</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/nobodycansaveme.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Good Goodbye</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>album: "One More Light" (2017)</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/goodgoodbye.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Talking To Myself</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>album: "One More Light" (2017)</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/talkingtomyself.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Battle Symphony</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>album: "One More Light" (2017)</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/battlesymphony.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Invisible</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>album: "One More Light" (2017)</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/invisible.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Heavy</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>album: "One More Light" (2017)</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/heavy.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Sorry For Now</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>album: "One More Light" (2017)</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/sorryfornow.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Halfway Right</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>album: "One More Light" (2017)</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/halfwayright.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>One More Light</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>album: "One More Light" (2017)</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/onemorelight.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Sharp Edges</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>album: "One More Light" (2017)</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/sharpedges.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Could Have Been</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/couldhavebeen.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Dialate (Xero Demo)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/dialatexerodemo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Its Going Down</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/itsgoingdown.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Looking For An Answer</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/lookingforananswer.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>New Divide(from "Transformers: Revenge Of The Fallen" soundtrack)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/newdivide.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Not Alone</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/notalone.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>One More Light (Steve Aoki Chester Forever Remix)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/onemorelightsteveaokichesterforeverremix.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Pictureboard</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/pictureboard.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Rolling In The Deep</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/rollinginthedeep.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Starting To Fly</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/startingtofly.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Stick N Move (Demo)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/sticknmovedemo.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>System(from "Queen Of The Damned" soundtrack)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/system.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Vertical Limit</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/verticallimit.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Walking Dead</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/walkingdead.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>What Are You Worth?</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/whatareyouworth.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Wish</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Linkin Park Lyrics</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>/lyrics/linkinpark/wish.html</t>
         </is>
       </c>
     </row>

--- a/datasets/discography_data.xlsx
+++ b/datasets/discography_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rhinestone</t>
+          <t>I Will Follow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>demo: "Xero" (1997)(as Xero)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/rhinestone.html</t>
+          <t>/lyrics/u2band/iwillfollow.html</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reading My Eyes</t>
+          <t>Twilight</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>demo: "Xero" (1997)(as Xero)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/readingmyeyes.html</t>
+          <t>/lyrics/u2band/twilight.html</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fuse</t>
+          <t>An Cat Dubh</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>demo: "Xero" (1997)(as Xero)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/fuse.html</t>
+          <t>/lyrics/u2band/ancatdubh.html</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stick N Move</t>
+          <t>Into The Heart</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>demo: "Xero" (1997)(as Xero)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/sticknmove.html</t>
+          <t>/lyrics/u2band/intotheheart.html</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carousel</t>
+          <t>Out Of Control</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/carousel.html</t>
+          <t>/lyrics/u2band/outofcontrol.html</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Technique (Short)</t>
+          <t>Stories For Boys</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/techniqueshort.html</t>
+          <t>/lyrics/u2band/storiesforboys.html</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Step Up</t>
+          <t>The Ocean</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/stepup.html</t>
+          <t>/lyrics/u2band/theocean.html</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>And One</t>
+          <t>A Day Without Me</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/andone.html</t>
+          <t>/lyrics/u2band/adaywithoutme.html</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>High Voltage</t>
+          <t>Another Time, Another Place</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/highvoltageepversion.html</t>
+          <t>/lyrics/u2band/anothertimeanotherplace.html</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Part Of Me</t>
+          <t>The Electric Co.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EP: "Hybrid Theory" (1999)(as Hybrid Theory)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/partofme.html</t>
+          <t>/lyrics/u2band/theelectricco.html</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Untitled</t>
+          <t>Shadows And Tall Trees</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
+          <t>album: "Boy" (1980)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/untitled.html</t>
+          <t>/lyrics/u2band/shadowsandtalltrees.html</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Super Xero (By Myself Demo)</t>
+          <t>Gloria</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
+          <t>album: "October" (1981)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/superxero.html</t>
+          <t>/lyrics/u2band/gloria.html</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Points And Authority (Demo)</t>
+          <t>I Fall Down</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
+          <t>album: "October" (1981)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/pointsandauthoritydemo.html</t>
+          <t>/lyrics/u2band/ifalldown.html</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Crawling (Demo, Edit)</t>
+          <t>I Threw A Brick Through A Window</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
+          <t>album: "October" (1981)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/crawlingdemoedit.html</t>
+          <t>/lyrics/u2band/ithrewabrickthroughawindow.html</t>
         </is>
       </c>
     </row>
@@ -811,22 +811,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>She Couldnt</t>
+          <t>Rejoice</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
+          <t>album: "October" (1981)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/shecouldnt.html</t>
+          <t>/lyrics/u2band/rejoice.html</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Carousel (Demo)</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
+          <t>album: "October" (1981)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/carouseldemo.html</t>
+          <t>/lyrics/u2band/fire.html</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Part Of Me (Demo)</t>
+          <t>Tomorrow</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
+          <t>album: "October" (1981)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/partofmedemo.html</t>
+          <t>/lyrics/u2band/tomorrow.html</t>
         </is>
       </c>
     </row>
@@ -886,22 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>And One</t>
+          <t>October</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>demo: "Hybrid Theory 8-Track Demo" (1999)(as Hybrid Theory)</t>
+          <t>album: "October" (1981)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/andone.html</t>
+          <t>/lyrics/u2band/october.html</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Papercut</t>
+          <t>With A Shout</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "October" (1981)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/papercut.html</t>
+          <t>/lyrics/u2band/withashout.html</t>
         </is>
       </c>
     </row>
@@ -936,22 +936,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>One Step Closer</t>
+          <t>Stranger In A Strange Land</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "October" (1981)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/onestepcloser.html</t>
+          <t>/lyrics/u2band/strangerinastrangeland.html</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>With You</t>
+          <t>Is That All</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "October" (1981)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/withyou.html</t>
+          <t>/lyrics/u2band/isthatall.html</t>
         </is>
       </c>
     </row>
@@ -986,22 +986,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Points Of Authority</t>
+          <t>Sunday Bloody Sunday</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "War" (1983)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/pointsofauthority.html</t>
+          <t>/lyrics/u2band/sundaybloodysunday.html</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Crawling</t>
+          <t>Seconds</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "War" (1983)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/crawling.html</t>
+          <t>/lyrics/u2band/seconds.html</t>
         </is>
       </c>
     </row>
@@ -1036,22 +1036,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Runaway</t>
+          <t>New Years Day</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "War" (1983)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/runaway.html</t>
+          <t>/lyrics/u2band/newyearsday.html</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>By Myself</t>
+          <t>Like A Song</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "War" (1983)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/bymyself.html</t>
+          <t>/lyrics/u2band/likeasong.html</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>In The End</t>
+          <t>Drowning Man</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "War" (1983)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/intheend.html</t>
+          <t>/lyrics/u2band/drowningman.html</t>
         </is>
       </c>
     </row>
@@ -1111,22 +1111,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A Place For My Head</t>
+          <t>The Refugee</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "War" (1983)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/aplaceformyhead.html</t>
+          <t>/lyrics/u2band/therefugee.html</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Forgotten</t>
+          <t>Two Hearts Beat As One</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "War" (1983)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/forgotten.html</t>
+          <t>/lyrics/u2band/twoheartsbeatasone.html</t>
         </is>
       </c>
     </row>
@@ -1161,22 +1161,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cure For The Itch</t>
+          <t>Red Light</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "War" (1983)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/curefortheitch.html</t>
+          <t>/lyrics/u2band/redlight.html</t>
         </is>
       </c>
     </row>
@@ -1186,22 +1186,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pushing Me Away</t>
+          <t>Surrender</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "War" (1983)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/pushingmeaway.html</t>
+          <t>/lyrics/u2band/surrender.html</t>
         </is>
       </c>
     </row>
@@ -1211,22 +1211,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>High Voltage(Bonus Track)</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>album: "Hybrid Theory" (2000)</t>
+          <t>album: "War" (1983)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/highvoltage.html</t>
+          <t>/lyrics/u2band/40.html</t>
         </is>
       </c>
     </row>
@@ -1236,22 +1236,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pts.Of.Athrty</t>
+          <t>A Sort Of Homecoming</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/ptsofathrty.html</t>
+          <t>/lyrics/u2band/asortofhomecoming.html</t>
         </is>
       </c>
     </row>
@@ -1261,22 +1261,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Enth E Nd</t>
+          <t>Pride (In The Name Of Love)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/enthend.html</t>
+          <t>/lyrics/u2band/prideinthenameoflove.html</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chali</t>
+          <t>Wire</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/chali.html</t>
+          <t>/lyrics/u2band/wire.html</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Frgt/10</t>
+          <t>The Unforgettable Fire</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/frgt10.html</t>
+          <t>/lyrics/u2band/theunforgettablefire.html</t>
         </is>
       </c>
     </row>
@@ -1336,22 +1336,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P5hng Me A*wy</t>
+          <t>Promenade</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/p5hngmeawy.html</t>
+          <t>/lyrics/u2band/promenade.html</t>
         </is>
       </c>
     </row>
@@ -1361,24 +1361,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Plc.4 Mie Haed</t>
+          <t>4th Of July(Instrumental)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/plc4miehaed.html</t>
-        </is>
-      </c>
+          <t>album: "The Unforgettable Fire" (1984)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1386,22 +1382,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>X-Ecutioner Style</t>
+          <t>Bad</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/xecutionerstyle.html</t>
+          <t>/lyrics/u2band/bad.html</t>
         </is>
       </c>
     </row>
@@ -1411,22 +1407,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H! Vltg3</t>
+          <t>Indian Summer Sky</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/hvltg3.html</t>
+          <t>/lyrics/u2band/indiansummersky.html</t>
         </is>
       </c>
     </row>
@@ -1436,22 +1432,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Riff Raff</t>
+          <t>Elvis Presley And America</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/riffraff.html</t>
+          <t>/lyrics/u2band/elvispresleyandamerica.html</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1457,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wth&gt;You</t>
+          <t>MLK</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/wthyou.html</t>
+          <t>/lyrics/u2band/mlk.html</t>
         </is>
       </c>
     </row>
@@ -1486,22 +1482,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PPr:Kut</t>
+          <t>Disappearing Act(Bonus Track)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/pprkut.html</t>
+          <t>/lyrics/u2band/disappearingact.html</t>
         </is>
       </c>
     </row>
@@ -1511,22 +1507,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rnw@y</t>
+          <t>11 OClock Tick Tock(Bonus Track)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/rnwy.html</t>
+          <t>/lyrics/u2band/11oclockticktock.html</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1532,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>My&lt;Dsmbr</t>
+          <t>Boomerang II(Bonus Track)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Unforgettable Fire" (1984)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/mydsmbr.html</t>
+          <t>/lyrics/u2band/boomerangii.html</t>
         </is>
       </c>
     </row>
@@ -1561,22 +1557,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Stef</t>
+          <t>Where The Streets Have No Name</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/stef.html</t>
+          <t>/lyrics/u2band/wherethestreetshavenoname.html</t>
         </is>
       </c>
     </row>
@@ -1586,22 +1582,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>By_Myslf</t>
+          <t>I Still Havent Found What Im Looking For</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/bymyslf.html</t>
+          <t>/lyrics/u2band/istillhaventfoundwhatimlookingfor.html</t>
         </is>
       </c>
     </row>
@@ -1611,22 +1607,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Kyur4 Th Ich</t>
+          <t>With Or Without You</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/kyur4thich.html</t>
+          <t>/lyrics/u2band/withorwithoutyou.html</t>
         </is>
       </c>
     </row>
@@ -1636,22 +1632,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1stp Klosr</t>
+          <t>Bullet The Blue Sky</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/1stpklosr.html</t>
+          <t>/lyrics/u2band/bulletthebluesky.html</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1657,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Krwlng</t>
+          <t>Running To Stand Still</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>album: "Reanimation" (2002)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/krwlng.html</t>
+          <t>/lyrics/u2band/runningtostandstill.html</t>
         </is>
       </c>
     </row>
@@ -1686,20 +1682,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Foreword(Instrumental)</t>
+          <t>Red Hill Mining Town</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>album: "The Joshua Tree" (1987)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/redhillminingtown.html</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1707,22 +1707,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dont Stay</t>
+          <t>In Gods Country</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/dontstay.html</t>
+          <t>/lyrics/u2band/ingodscountry.html</t>
         </is>
       </c>
     </row>
@@ -1732,22 +1732,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Somewhere I Belong</t>
+          <t>Trip Through Your Wires</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/somewhereibelong.html</t>
+          <t>/lyrics/u2band/tripthroughyourwires.html</t>
         </is>
       </c>
     </row>
@@ -1757,22 +1757,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Lying From You</t>
+          <t>One Tree Hill</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/lyingfromyou.html</t>
+          <t>/lyrics/u2band/onetreehill.html</t>
         </is>
       </c>
     </row>
@@ -1782,22 +1782,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hit The Floor</t>
+          <t>Exit</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/hitthefloor.html</t>
+          <t>/lyrics/u2band/exit.html</t>
         </is>
       </c>
     </row>
@@ -1807,22 +1807,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Easier To Run</t>
+          <t>Mothers Of The Disappeared</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/easiertorun.html</t>
+          <t>/lyrics/u2band/mothersofthedisappeared.html</t>
         </is>
       </c>
     </row>
@@ -1832,22 +1832,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Faint</t>
+          <t>Desert Of Our Love(Reissue Bonus Track)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/faint.html</t>
+          <t>/lyrics/u2band/desertofourlove.html</t>
         </is>
       </c>
     </row>
@@ -1857,22 +1857,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Figure.09</t>
+          <t>Rise Up(Reissue Bonus Track)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/figure09.html</t>
+          <t>/lyrics/u2band/riseup.html</t>
         </is>
       </c>
     </row>
@@ -1882,22 +1882,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Breaking The Habit</t>
+          <t>Drunk Chicken/America(Reissue Bonus Track)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/breakingthehabit.html</t>
+          <t>/lyrics/u2band/drunkchickenamerica.html</t>
         </is>
       </c>
     </row>
@@ -1907,22 +1907,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>From The Inside</t>
+          <t>Deep In The Heart</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/fromtheinside.html</t>
+          <t>/lyrics/u2band/deepintheheart.html</t>
         </is>
       </c>
     </row>
@@ -1932,22 +1932,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nobodys Listening</t>
+          <t>Sweetest Thing</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "The Joshua Tree" (1987)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/nobodyslistening.html</t>
+          <t>/lyrics/u2band/sweetestthing.html</t>
         </is>
       </c>
     </row>
@@ -1957,20 +1957,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Session(Instrumental)</t>
+          <t>Race Against Time(Reissue Bonus Track)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>album: "The Joshua Tree" (1987)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/raceagainsttime.html</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1978,22 +1982,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Numb</t>
+          <t>Helter Skelter</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/numb.html</t>
+          <t>/lyrics/u2band/helterskelter.html</t>
         </is>
       </c>
     </row>
@@ -2003,22 +2007,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Standing In The Middle(20th Anniversary Edition Bonus Track)</t>
+          <t>Van Diemens Land</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/standinginthemiddle.html</t>
+          <t>/lyrics/u2band/vandiemensland.html</t>
         </is>
       </c>
     </row>
@@ -2028,22 +2032,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lost(20th Anniversary Edition Bonus Track)</t>
+          <t>Desire</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/lost.html</t>
+          <t>/lyrics/u2band/desire.html</t>
         </is>
       </c>
     </row>
@@ -2053,22 +2057,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fighting Myself(20th Anniversary Edition Bonus Track)</t>
+          <t>Hawkmoon 269</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/fightingmyself.html</t>
+          <t>/lyrics/u2band/hawkmoon269.html</t>
         </is>
       </c>
     </row>
@@ -2078,22 +2082,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>More The Victim(20th Anniversary Edition Bonus Track)</t>
+          <t>All Along The Watchtower</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/morethevictim.html</t>
+          <t>/lyrics/u2band/allalongthewatchtower.html</t>
         </is>
       </c>
     </row>
@@ -2103,22 +2107,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Massive(20th Anniversary Edition Bonus Track)</t>
+          <t>I Still Havent Found What Im Looking For</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/massive.html</t>
+          <t>/lyrics/u2band/istillhaventfoundwhatimlookingfor.html</t>
         </is>
       </c>
     </row>
@@ -2128,22 +2132,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Healing Foot(20th Anniversary Edition Bonus Track)</t>
+          <t>Freedom For My People</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/healingfoot.html</t>
+          <t>/lyrics/u2band/freedomformypeople.html</t>
         </is>
       </c>
     </row>
@@ -2153,22 +2157,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A6 (Meteora20 Demo)(20th Anniversary Edition Bonus Track)</t>
+          <t>Silver And Gold</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/a6meteora20demo.html</t>
+          <t>/lyrics/u2band/silverandgold.html</t>
         </is>
       </c>
     </row>
@@ -2178,20 +2182,24 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cuidado (Lying From You Demo)(20th Anniversary Edition Bonus Track, Instrumental)</t>
+          <t>Pride (In The Name Of Love)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+          <t>album: "Rattle And Hum" (1988)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/prideinthenameoflove.html</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2199,22 +2207,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Husky (Hit The Floor Demo)(20th Anniversary Edition Bonus Track)</t>
+          <t>Angel Of Harlem</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/huskyhitthefloordemo.html</t>
+          <t>/lyrics/u2band/angelofharlem.html</t>
         </is>
       </c>
     </row>
@@ -2224,20 +2232,24 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Interrogation (Easier To Run Demo)(20th Anniversary Edition Bonus Track, Instrumental)</t>
+          <t>Love Rescue Me</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+          <t>album: "Rattle And Hum" (1988)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/loverescueme.html</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2245,22 +2257,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Faint (Meteora20 Demo)(20th Anniversary Edition Bonus Track)</t>
+          <t>When Love Comes To Town</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/faintmeteora20demo.html</t>
+          <t>/lyrics/u2band/whenlovecomestotown.html</t>
         </is>
       </c>
     </row>
@@ -2270,22 +2282,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Plaster 2 (Figure.09 Demo)(20th Anniversary Edition Bonus Track)</t>
+          <t>Heartland</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/plaster2figure09demo.html</t>
+          <t>/lyrics/u2band/heartland.html</t>
         </is>
       </c>
     </row>
@@ -2295,22 +2307,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Shifter (From The Inside Demo)(20th Anniversary Edition Bonus Track)</t>
+          <t>God Part II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/shifterfromtheinsidedemo.html</t>
+          <t>/lyrics/u2band/godpartii.html</t>
         </is>
       </c>
     </row>
@@ -2320,17 +2332,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Wesside(20th Anniversary Edition Bonus Track, Instrumental)</t>
+          <t>The Star Spangled Banner(Instrumental)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2341,22 +2353,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Resolution(20th Anniversary Edition Bonus Track)</t>
+          <t>Bullet The Blue Sky (Live)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>album: "Meteora" (2003)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/resolution.html</t>
+          <t>/lyrics/u2band/bullettheblueskylive.html</t>
         </is>
       </c>
     </row>
@@ -2366,22 +2378,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dirt Off Your Shoulder / Lying From You</t>
+          <t>All I Want Is You</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+          <t>album: "Rattle And Hum" (1988)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/dirtoffyourshoulderlyingfromyou.html</t>
+          <t>/lyrics/u2band/alliwantisyou.html</t>
         </is>
       </c>
     </row>
@@ -2391,22 +2403,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Big Pimpin / Papercut</t>
+          <t>Zoo Station</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/bigpimpinpapercut.html</t>
+          <t>/lyrics/u2band/zoostation.html</t>
         </is>
       </c>
     </row>
@@ -2416,22 +2428,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jigga What / Faint</t>
+          <t>Even Better Than The Real Thing</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/jiggawhatfaint.html</t>
+          <t>/lyrics/u2band/evenbetterthantherealthing.html</t>
         </is>
       </c>
     </row>
@@ -2441,22 +2453,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Numb / Encore</t>
+          <t>One</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/numbencore.html</t>
+          <t>/lyrics/u2band/one.html</t>
         </is>
       </c>
     </row>
@@ -2466,22 +2478,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Izzo / In The End</t>
+          <t>Until The End Of The World</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/izzointheend.html</t>
+          <t>/lyrics/u2band/untiltheendoftheworld.html</t>
         </is>
       </c>
     </row>
@@ -2491,22 +2503,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Points Of Authority / 99 Problems / One Step Closer</t>
+          <t>Whos Gonna Ride Your Wild Horses</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>EP: "Collision Course" (2004)(with Jay-Z)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/pointsofauthority99problemsonestepcloser.html</t>
+          <t>/lyrics/u2band/whosgonnarideyourwildhorses.html</t>
         </is>
       </c>
     </row>
@@ -2516,20 +2528,24 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Wake(Instrumental)</t>
+          <t>So Cruel</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+          <t>album: "Achtung Baby" (1991)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/socruel.html</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2537,22 +2553,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Given Up</t>
+          <t>The Fly</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/givenup.html</t>
+          <t>/lyrics/u2band/thefly.html</t>
         </is>
       </c>
     </row>
@@ -2562,22 +2578,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Leave Out All The Rest</t>
+          <t>Mysterious Ways</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/leaveoutalltherest.html</t>
+          <t>/lyrics/u2band/mysteriousways.html</t>
         </is>
       </c>
     </row>
@@ -2587,22 +2603,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Bleed It Out</t>
+          <t>Tryin To Throw Your Arms Around The World</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/bleeditout.html</t>
+          <t>/lyrics/u2band/tryintothrowyourarmsaroundtheworld.html</t>
         </is>
       </c>
     </row>
@@ -2612,22 +2628,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Shadow Of The Day</t>
+          <t>Ultraviolet (Light My Way)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/shadowoftheday.html</t>
+          <t>/lyrics/u2band/ultravioletlightmyway.html</t>
         </is>
       </c>
     </row>
@@ -2637,22 +2653,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>What Ive Done</t>
+          <t>Acrobat</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/whativedone.html</t>
+          <t>/lyrics/u2band/acrobat.html</t>
         </is>
       </c>
     </row>
@@ -2662,22 +2678,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hands Held High</t>
+          <t>Love Is Blindness</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/handsheldhigh.html</t>
+          <t>/lyrics/u2band/loveisblindness.html</t>
         </is>
       </c>
     </row>
@@ -2687,22 +2703,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>No More Sorrow</t>
+          <t>Blow Your House Down(Reissue Bonus Track)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Achtung Baby" (1991)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/nomoresorrow.html</t>
+          <t>/lyrics/u2band/blowyourhousedown.html</t>
         </is>
       </c>
     </row>
@@ -2712,22 +2728,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Valentines Day</t>
+          <t>Zooropa</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Zooropa" (1993)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/valentinesday.html</t>
+          <t>/lyrics/u2band/zooropa.html</t>
         </is>
       </c>
     </row>
@@ -2737,22 +2753,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>In Between</t>
+          <t>Babyface</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Zooropa" (1993)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/inbetween.html</t>
+          <t>/lyrics/u2band/babyface.html</t>
         </is>
       </c>
     </row>
@@ -2762,22 +2778,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>In Pieces</t>
+          <t>Numb</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Zooropa" (1993)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/inpieces.html</t>
+          <t>/lyrics/u2band/numb.html</t>
         </is>
       </c>
     </row>
@@ -2787,22 +2803,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>The Little Things Give You Away</t>
+          <t>Lemon</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Zooropa" (1993)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/thelittlethingsgiveyouaway.html</t>
+          <t>/lyrics/u2band/lemon.html</t>
         </is>
       </c>
     </row>
@@ -2812,22 +2828,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>No Roads Left(B-side)</t>
+          <t>Stay (Faraway, So Close!)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>album: "Minutes To Midnight" (2007)</t>
+          <t>album: "Zooropa" (1993)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/noroadsleft.html</t>
+          <t>/lyrics/u2band/stayfarawaysoclose.html</t>
         </is>
       </c>
     </row>
@@ -2837,22 +2853,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>You Aint Gotsta Gotsta</t>
+          <t>Daddys Gonna Pay For Your Crashed Car</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+          <t>album: "Zooropa" (1993)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/youaintgotstagotsta.html</t>
+          <t>/lyrics/u2band/daddysgonnapayforyourcrashedcar.html</t>
         </is>
       </c>
     </row>
@@ -2862,22 +2878,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bubbles</t>
+          <t>Some Days Are Better Than Others</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+          <t>album: "Zooropa" (1993)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/bubbles.html</t>
+          <t>/lyrics/u2band/somedaysarebetterthanothers.html</t>
         </is>
       </c>
     </row>
@@ -2887,22 +2903,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>No Laundry</t>
+          <t>The First Time</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+          <t>album: "Zooropa" (1993)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/nolaundry.html</t>
+          <t>/lyrics/u2band/thefirsttime.html</t>
         </is>
       </c>
     </row>
@@ -2912,22 +2928,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Da Bloos</t>
+          <t>Dirty Day</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+          <t>album: "Zooropa" (1993)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/dabloos.html</t>
+          <t>/lyrics/u2band/dirtyday.html</t>
         </is>
       </c>
     </row>
@@ -2937,22 +2953,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PB N Jellyfish</t>
+          <t>The Wanderer</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+          <t>album: "Zooropa" (1993)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/pbnjellyfish.html</t>
+          <t>/lyrics/u2band/thewanderer.html</t>
         </is>
       </c>
     </row>
@@ -2962,22 +2978,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>26 Lettaz In Da Alphabet</t>
+          <t>Slug</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>EP: "Underground 8 (MMM...COOKIES: Sweet Hamster Like Jewels From America!)" (2008)</t>
+          <t>soundtrack: "Passengers" (1995)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/26lettazindaalphabet.html</t>
+          <t>/lyrics/u2band/slug.html</t>
         </is>
       </c>
     </row>
@@ -2987,20 +3003,24 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>A-Six (Original Long Version 2002)(Instrumental)</t>
+          <t>Your Blue Room</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>demo: "Underground 9: Demos" (2009)</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
+          <t>soundtrack: "Passengers" (1995)</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/yourblueroom.html</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3008,22 +3028,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Faint (2002 Demo)</t>
+          <t>A Different Kind Of Blue</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>demo: "Underground 9: Demos" (2009)</t>
+          <t>soundtrack: "Passengers" (1995)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/faint2002demo.html</t>
+          <t>/lyrics/u2band/adifferentkindofblue.html</t>
         </is>
       </c>
     </row>
@@ -3033,20 +3053,24 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sad (By Myself 1999 Demo)(Instrumental)</t>
+          <t>Miss Sarajevo</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>demo: "Underground 9: Demos" (2009)</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>soundtrack: "Passengers" (1995)</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/misssarajevo.html</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3054,22 +3078,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Fear (Leave Out All The Rest 2002 Demo)</t>
+          <t>Ito Okashi</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>demo: "Underground 9: Demos" (2009)</t>
+          <t>soundtrack: "Passengers" (1995)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/fearleaveoutalltherest2002demo.html</t>
+          <t>/lyrics/u2band/itookashi.html</t>
         </is>
       </c>
     </row>
@@ -3079,22 +3103,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Figure.09 (2002 Demo)</t>
+          <t>Elvis Ate America</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>demo: "Underground 9: Demos" (2009)</t>
+          <t>soundtrack: "Passengers" (1995)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/figure092002demo.html</t>
+          <t>/lyrics/u2band/elvisateamerica.html</t>
         </is>
       </c>
     </row>
@@ -3104,20 +3128,24 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Stick And Move (Runaway 1998 Demo)(Instrumental)</t>
+          <t>Discotheque</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>demo: "Underground 9: Demos" (2009)</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+          <t>album: "Pop" (1997)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/discotheque.html</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3125,22 +3153,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Across The Line (Unreleased 2007 Demo)</t>
+          <t>Do You Feel Loved</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>demo: "Underground 9: Demos" (2009)</t>
+          <t>album: "Pop" (1997)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/acrossthelineunreleased2007demo.html</t>
+          <t>/lyrics/u2band/doyoufeelloved.html</t>
         </is>
       </c>
     </row>
@@ -3150,20 +3178,24 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Drawing (Breaking The Habit 2002 Demo)(Instrumental)</t>
+          <t>Mofo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>demo: "Underground 9: Demos" (2009)</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+          <t>album: "Pop" (1997)</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/mofo.html</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3171,22 +3203,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Drum Song (Little Things Give You Away 2006 Demo)</t>
+          <t>If God Will Send His Angels</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>demo: "Underground 9: Demos" (2009)</t>
+          <t>album: "Pop" (1997)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/drumsonglittlethingsgiveyouaway2006demo.html</t>
+          <t>/lyrics/u2band/ifgodwillsendhisangels.html</t>
         </is>
       </c>
     </row>
@@ -3196,22 +3228,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Announcement Service Public</t>
+          <t>Staring At The Sun</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>compilation: "A Decade Underground" (2010)</t>
+          <t>album: "Pop" (1997)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/announcementservicepublic.html</t>
+          <t>/lyrics/u2band/staringatthesun.html</t>
         </is>
       </c>
     </row>
@@ -3221,22 +3253,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Qwerty</t>
+          <t>Last Night On Earth</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>compilation: "A Decade Underground" (2010)</t>
+          <t>album: "Pop" (1997)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/qwerty.html</t>
+          <t>/lyrics/u2band/lastnightonearth.html</t>
         </is>
       </c>
     </row>
@@ -3246,22 +3278,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>And One</t>
+          <t>Gone</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>compilation: "A Decade Underground" (2010)</t>
+          <t>album: "Pop" (1997)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/andone.html</t>
+          <t>/lyrics/u2band/gone.html</t>
         </is>
       </c>
     </row>
@@ -3271,22 +3303,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sold My Soul To Yo Mama</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>compilation: "A Decade Underground" (2010)</t>
+          <t>album: "Pop" (1997)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/soldmysoultoyomama.html</t>
+          <t>/lyrics/u2band/miami.html</t>
         </is>
       </c>
     </row>
@@ -3296,22 +3328,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Dedicated</t>
+          <t>Playboy Mansion</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>compilation: "A Decade Underground" (2010)</t>
+          <t>album: "Pop" (1997)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/dedicated.html</t>
+          <t>/lyrics/u2band/playboymansion.html</t>
         </is>
       </c>
     </row>
@@ -3321,22 +3353,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Hunger Strike</t>
+          <t>If You Wear That Velvet Dress</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>compilation: "A Decade Underground" (2010)</t>
+          <t>album: "Pop" (1997)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/hungerstrike.html</t>
+          <t>/lyrics/u2band/ifyouwearthatvelvetdress.html</t>
         </is>
       </c>
     </row>
@@ -3346,22 +3378,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>My December</t>
+          <t>Please</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>compilation: "A Decade Underground" (2010)</t>
+          <t>album: "Pop" (1997)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/mydecember.html</t>
+          <t>/lyrics/u2band/please.html</t>
         </is>
       </c>
     </row>
@@ -3371,22 +3403,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Part Of Me</t>
+          <t>Wake Up Dead Man</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>compilation: "A Decade Underground" (2010)</t>
+          <t>album: "Pop" (1997)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/partofme.html</t>
+          <t>/lyrics/u2band/wakeupdeadman.html</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3428,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Across The Line</t>
+          <t>Holy Joe (Guilty Mix)(Japan Bonus Track)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>compilation: "A Decade Underground" (2010)</t>
+          <t>album: "Pop" (1997)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/acrosstheline.html</t>
+          <t>/lyrics/u2band/holyjoeguiltymix.html</t>
         </is>
       </c>
     </row>
@@ -3421,22 +3453,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pretend To Be</t>
+          <t>Three Sunrises</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>compilation: "A Decade Underground" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/pretendtobe.html</t>
+          <t>/lyrics/u2band/threesunrises.html</t>
         </is>
       </c>
     </row>
@@ -3446,22 +3478,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>The Requiem</t>
+          <t>Spanish Eyes</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/therequiem.html</t>
+          <t>/lyrics/u2band/spanisheyes.html</t>
         </is>
       </c>
     </row>
@@ -3471,22 +3503,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>The Radiance</t>
+          <t>The Sweetest Thing</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/theradiance.html</t>
+          <t>/lyrics/u2band/thesweetestthing.html</t>
         </is>
       </c>
     </row>
@@ -3496,22 +3528,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Burning In The Skies</t>
+          <t>Love Comes Tumbling</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/burningintheskies.html</t>
+          <t>/lyrics/u2band/lovecomestumbling.html</t>
         </is>
       </c>
     </row>
@@ -3521,20 +3553,24 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Empty Spaces(Instrumental)</t>
+          <t>Dancing Barefoot</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/dancingbarefoot.html</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3542,22 +3578,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>When They Come For Me</t>
+          <t>Everlasting Love</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/whentheycomeforme.html</t>
+          <t>/lyrics/u2band/everlastinglove.html</t>
         </is>
       </c>
     </row>
@@ -3567,22 +3603,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Robot Boy</t>
+          <t>Unchained Melody</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/robotboy.html</t>
+          <t>/lyrics/u2band/unchainedmelody.html</t>
         </is>
       </c>
     </row>
@@ -3592,22 +3628,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Jornada Del Muerto</t>
+          <t>Walk To The Water</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/jornadadelmuerto.html</t>
+          <t>/lyrics/u2band/walktothewater.html</t>
         </is>
       </c>
     </row>
@@ -3617,22 +3653,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Waiting For The End</t>
+          <t>Luminous Times (Hold On To Love)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/waitingfortheend.html</t>
+          <t>/lyrics/u2band/luminoustimesholdontolove.html</t>
         </is>
       </c>
     </row>
@@ -3642,22 +3678,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Blackout</t>
+          <t>Hallelujah  (Here She Comes)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/blackout.html</t>
+          <t>/lyrics/u2band/hallelujahhereshecomes.html</t>
         </is>
       </c>
     </row>
@@ -3667,22 +3703,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Wretches And Kings</t>
+          <t>Silver And Gold</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/wretchesandkings.html</t>
+          <t>/lyrics/u2band/silverandgold.html</t>
         </is>
       </c>
     </row>
@@ -3692,22 +3728,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Wisdom, Justice And Love</t>
+          <t>Endless Deep</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/wisdomjusticeandlove.html</t>
+          <t>/lyrics/u2band/endlessdeep.html</t>
         </is>
       </c>
     </row>
@@ -3717,22 +3753,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Iridescent</t>
+          <t>A Room At The Heartbreak Hotel</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/iridescent.html</t>
+          <t>/lyrics/u2band/aroomattheheartbreakhotel.html</t>
         </is>
       </c>
     </row>
@@ -3742,22 +3778,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Fallout</t>
+          <t>Party Girl</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>compilation: "The Best Of 1980-1990" (1998)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/fallout.html</t>
+          <t>/lyrics/u2band/partygirl.html</t>
         </is>
       </c>
     </row>
@@ -3767,22 +3803,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>The Catalyst</t>
+          <t>Beautiful Day</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>album: "All That You Cant Leave Behind" (2000)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/thecatalyst.html</t>
+          <t>/lyrics/u2band/beautifulday.html</t>
         </is>
       </c>
     </row>
@@ -3792,22 +3828,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>The Messenger</t>
+          <t>Elevation</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>album: "All That You Cant Leave Behind" (2000)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/themessenger.html</t>
+          <t>/lyrics/u2band/elevation.html</t>
         </is>
       </c>
     </row>
@@ -3817,22 +3853,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Blackbirds(2013 iTunes Deluxe Edition Bonus Track)</t>
+          <t>Walk On</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>album: "A Thousand Suns" (2010)</t>
+          <t>album: "All That You Cant Leave Behind" (2000)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/blackbirds.html</t>
+          <t>/lyrics/u2band/walkon.html</t>
         </is>
       </c>
     </row>
@@ -3842,20 +3878,24 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Unfortunate (2002 Demo)(Instrumental)</t>
+          <t>Stuck In A Moment You Cant Get Out Of</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>demo: "Underground X: Demos" (2010)</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
+          <t>album: "All That You Cant Leave Behind" (2000)</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/stuckinamomentyoucantgetoutof.html</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3863,22 +3903,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>What We Dont Know (2007 Demo)</t>
+          <t>Peace On Earth</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>demo: "Underground X: Demos" (2010)</t>
+          <t>album: "All That You Cant Leave Behind" (2000)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/whatwedontknow2007demo.html</t>
+          <t>/lyrics/u2band/peaceonearth.html</t>
         </is>
       </c>
     </row>
@@ -3888,20 +3928,24 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Oh No (Points Of Authority Demo)(Instrumental)</t>
+          <t>Kite</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>demo: "Underground X: Demos" (2010)</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
+          <t>album: "All That You Cant Leave Behind" (2000)</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/kite.html</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3909,22 +3953,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>I Have Not Begun (2009 Demo)</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>demo: "Underground X: Demos" (2010)</t>
+          <t>album: "All That You Cant Leave Behind" (2000)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/ihavenotbegun2009demo.html</t>
+          <t>/lyrics/u2band/newyork.html</t>
         </is>
       </c>
     </row>
@@ -3934,20 +3978,24 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pale (2006 Demo)(Instrumental)</t>
+          <t>In A Little While</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>demo: "Underground X: Demos" (2010)</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
+          <t>album: "All That You Cant Leave Behind" (2000)</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/inalittlewhile.html</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3955,22 +4003,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Pretend To Be (2008 Demo)</t>
+          <t>Wild Honey</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>demo: "Underground X: Demos" (2010)</t>
+          <t>album: "All That You Cant Leave Behind" (2000)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/pretendtobe2008demo.html</t>
+          <t>/lyrics/u2band/wildhoney.html</t>
         </is>
       </c>
     </row>
@@ -3980,20 +4028,24 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Divided (2005 Demo)(Instrumental)</t>
+          <t>When I Look At The World</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>demo: "Underground X: Demos" (2010)</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
+          <t>album: "All That You Cant Leave Behind" (2000)</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/whenilookattheworld.html</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4001,22 +4053,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>What Ive Done (Mike Shinoda Remix)</t>
+          <t>Grace</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>demo: "Underground X: Demos" (2010)</t>
+          <t>album: "All That You Cant Leave Behind" (2000)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/whativedonemikeshinodaremix.html</t>
+          <t>/lyrics/u2band/grace.html</t>
         </is>
       </c>
     </row>
@@ -4026,20 +4078,24 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Coal (1997 Demo)(Instrumental)</t>
+          <t>Vertigo</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>demo: "Underground X: Demos" (2010)</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/vertigo.html</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4047,20 +4103,24 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Halo (2002 Demo)(Instrumental)</t>
+          <t>Miracle Drug</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>demo: "Underground X: Demos" (2010)</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/miracledrug.html</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4068,20 +4128,24 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>YO (MTM Demo)(Instrumental)</t>
+          <t>Sometimes You Cant Make It On Your Own</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>demo: "Underground Eleven" (2011)</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/sometimesyoucantmakeitonyourown.html</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4089,22 +4153,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Slip (1998 Unreleased Hybrid Theory Demo)</t>
+          <t>Love And Peace Or Else</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>demo: "Underground Eleven" (2011)</t>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/slip1998unreleasedhybridtheorydemo.html</t>
+          <t>/lyrics/u2band/loveandpeaceorelse.html</t>
         </is>
       </c>
     </row>
@@ -4114,20 +4178,24 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Soundtrack (Meteora Demo)(Instrumental)</t>
+          <t>City Of Blinding Lights</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>demo: "Underground Eleven" (2011)</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/cityofblindinglights.html</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4135,22 +4203,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>In The End (Demo)</t>
+          <t>All Because Of You</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>demo: "Underground Eleven" (2011)</t>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/intheenddemo217408.html</t>
+          <t>/lyrics/u2band/allbecauseofyou.html</t>
         </is>
       </c>
     </row>
@@ -4160,20 +4228,24 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Program (Meteora Demo)(Instrumental)</t>
+          <t>A Man And A Woman</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>demo: "Underground Eleven" (2011)</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/amanandawoman.html</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4181,20 +4253,24 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Bang Three (What Ive Done Original Demo)(Instrumental)</t>
+          <t>Crumbs From Your Table</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>demo: "Underground Eleven" (2011)</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/crumbsfromyourtable.html</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4202,22 +4278,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Robot Boy (Test Mix, Option Vocal Take)</t>
+          <t>One Step Closer</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>demo: "Underground Eleven" (2011)</t>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/robotboytestmixoptionvocaltake.html</t>
+          <t>/lyrics/u2band/onestepcloser.html</t>
         </is>
       </c>
     </row>
@@ -4227,20 +4303,24 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Broken Foot (Meteora Demo)(Instrumental)</t>
+          <t>Original Of The Species</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>demo: "Underground Eleven" (2011)</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/originalofthespecies.html</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4248,22 +4328,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Esaul (A Place For My Head Demo)</t>
+          <t>Yahweh</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>demo: "Underground Eleven" (2011)</t>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/esaulaplaceformyheaddemo217413.html</t>
+          <t>/lyrics/u2band/yahweh.html</t>
         </is>
       </c>
     </row>
@@ -4273,22 +4353,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Blue (1998 Unreleased Hybrid Theory Demo)</t>
+          <t>Fast Cars</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>demo: "Underground Eleven" (2011)</t>
+          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/blue1998unreleasedhybridtheorydemo.html</t>
+          <t>/lyrics/u2band/fastcars.html</t>
         </is>
       </c>
     </row>
@@ -4298,22 +4378,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Lost In The Echo</t>
+          <t>Levitate</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/lostintheecho.html</t>
+          <t>/lyrics/u2band/levitate.html</t>
         </is>
       </c>
     </row>
@@ -4323,22 +4403,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>In My Remains</t>
+          <t>Love You Like Mad</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/inmyremains.html</t>
+          <t>/lyrics/u2band/loveyoulikemad.html</t>
         </is>
       </c>
     </row>
@@ -4348,22 +4428,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Burn It Down</t>
+          <t>Smile</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/burnitdown.html</t>
+          <t>/lyrics/u2band/smile.html</t>
         </is>
       </c>
     </row>
@@ -4373,22 +4453,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lies Greed Misery</t>
+          <t>Flower Child</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/liesgreedmisery.html</t>
+          <t>/lyrics/u2band/flowerchild.html</t>
         </is>
       </c>
     </row>
@@ -4398,22 +4478,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ill Be Gone</t>
+          <t>Beautiful Ghost</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/illbegone.html</t>
+          <t>/lyrics/u2band/beautifulghost.html</t>
         </is>
       </c>
     </row>
@@ -4423,22 +4503,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Castle Of Glass</t>
+          <t>Jesus Christ</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/castleofglass.html</t>
+          <t>/lyrics/u2band/jesuschrist.html</t>
         </is>
       </c>
     </row>
@@ -4448,22 +4528,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Victimized</t>
+          <t>Xanax &amp; Wine</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/victimized.html</t>
+          <t>/lyrics/u2band/xanaxwine.html</t>
         </is>
       </c>
     </row>
@@ -4473,22 +4553,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Roads Untraveled</t>
+          <t>All Because Of You (Alternative Version)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/roadsuntraveled.html</t>
+          <t>/lyrics/u2band/allbecauseofyoualternativeversion.html</t>
         </is>
       </c>
     </row>
@@ -4498,22 +4578,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Skin To Bone</t>
+          <t>Native Son</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/skintobone.html</t>
+          <t>/lyrics/u2band/nativeson.html</t>
         </is>
       </c>
     </row>
@@ -4523,22 +4603,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Until It Breaks</t>
+          <t>Yahweh (Alternative Version)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/untilitbreaks.html</t>
+          <t>/lyrics/u2band/yahwehalternativeversion.html</t>
         </is>
       </c>
     </row>
@@ -4548,20 +4628,24 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tinfoil(Instrumental)</t>
+          <t>Sometimes You Cant Make It On Your Own (Alternative Version)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr"/>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/sometimesyoucantmakeitonyourownalternativeversion.html</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4569,22 +4653,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Powerless</t>
+          <t>Saturday Night</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>album: "Living Things" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/powerless.html</t>
+          <t>/lyrics/u2band/saturdaynight.html</t>
         </is>
       </c>
     </row>
@@ -4594,20 +4678,24 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Homecoming (Minutes To Midnight Demo)(Instrumental)</t>
+          <t>Trash, Trampoline And The Party Girl</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 12.0" (2012)</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/trashtrampolineandthepartygirl.html</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4615,22 +4703,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Points Of Authority (Demo)</t>
+          <t>Angels Too Tied To The Ground</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 12.0" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/pointsofauthoritydemo.html</t>
+          <t>/lyrics/u2band/angelstootiedtotheground.html</t>
         </is>
       </c>
     </row>
@@ -4640,20 +4728,24 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Clarity (Minutes To Midnight Demo)(Instrumental)</t>
+          <t>Wave Of Sorrow</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 12.0" (2012)</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/waveofsorrow.html</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4661,22 +4753,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Asbestos (Minutes To Midnight Demo)</t>
+          <t>Always</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 12.0" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/asbestosminutestomidnightdemo.html</t>
+          <t>/lyrics/u2band/always.html</t>
         </is>
       </c>
     </row>
@@ -4686,20 +4778,24 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Bunker (Minutes To Midnight Demo)(Instrumental)</t>
+          <t>Summer Rain</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 12.0" (2012)</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/summerrain.html</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4707,22 +4803,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>So Far Away (Unreleased 1998)</t>
+          <t>Big Girls Are Best</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 12.0" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/sofarawayunreleased1998.html</t>
+          <t>/lyrics/u2band/biggirlsarebest.html</t>
         </is>
       </c>
     </row>
@@ -4732,20 +4828,24 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Pepper (Meteora Demo)(Instrumental)</t>
+          <t>Fast Cars</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 12.0" (2012)</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/fastcars.html</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4753,22 +4853,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Debris (Minutes To Midnight Demo)</t>
+          <t>Neon Lights</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 12.0" (2012)</t>
+          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/debrisminutestomidnightdemo.html</t>
+          <t>/lyrics/u2band/neonlights.html</t>
         </is>
       </c>
     </row>
@@ -4778,20 +4878,24 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ominous (Meteora Demo)(Instrumental)</t>
+          <t>No Line On The Horizon</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 12.0" (2012)</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr"/>
+          <t>album: "No Line On The Horizon" (2009)</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/nolineonthehorizon.html</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4799,22 +4903,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Forgotten (Demo)</t>
+          <t>Magnificent</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 12.0" (2012)</t>
+          <t>album: "No Line On The Horizon" (2009)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/forgottendemo.html</t>
+          <t>/lyrics/u2band/magnificent.html</t>
         </is>
       </c>
     </row>
@@ -4824,22 +4928,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>A Light That Never Comes</t>
+          <t>Moment Of Surrender</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "No Line On The Horizon" (2009)</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/alightthatnevercomes.html</t>
+          <t>/lyrics/u2band/momentofsurrender.html</t>
         </is>
       </c>
     </row>
@@ -4849,22 +4953,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Castle Of Glass (M. Shinoda Remix)</t>
+          <t>Unknown Caller</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "No Line On The Horizon" (2009)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/castleofglassmshinodaremix.html</t>
+          <t>/lyrics/u2band/unknowncaller.html</t>
         </is>
       </c>
     </row>
@@ -4874,22 +4978,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Lost In The Echo (Killsonik Remix)</t>
+          <t>Ill Go Crazy If I Dont Go Crazy Tonight</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "No Line On The Horizon" (2009)</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/lostintheechokillsonikremix.html</t>
+          <t>/lyrics/u2band/illgocrazyifidontgocrazytonight.html</t>
         </is>
       </c>
     </row>
@@ -4899,22 +5003,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Victimized (M. Shinoda Remix)</t>
+          <t>Get On Your Boots</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "No Line On The Horizon" (2009)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/victimizedmshinodaremix.html</t>
+          <t>/lyrics/u2band/getonyourboots.html</t>
         </is>
       </c>
     </row>
@@ -4924,22 +5028,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ill Be Gone (Vice Remix)</t>
+          <t>Stand Up Comedy</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "No Line On The Horizon" (2009)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/illbegoneviceremix.html</t>
+          <t>/lyrics/u2band/standupcomedy.html</t>
         </is>
       </c>
     </row>
@@ -4949,22 +5053,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lies Greed Misery (Dirtyphonics Remix)</t>
+          <t>Fez - Being Born</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "No Line On The Horizon" (2009)</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/liesgreedmiserydirtyphonicsremix.html</t>
+          <t>/lyrics/u2band/fezbeingborn.html</t>
         </is>
       </c>
     </row>
@@ -4974,22 +5078,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Roads Untraveled (Rad Omen Remix)</t>
+          <t>White As Snow</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "No Line On The Horizon" (2009)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/roadsuntraveledradomenremix.html</t>
+          <t>/lyrics/u2band/whiteassnow.html</t>
         </is>
       </c>
     </row>
@@ -4999,22 +5103,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Powerless (Enferno Remix)</t>
+          <t>Breathe</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "No Line On The Horizon" (2009)</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/powerlessenfernoremix.html</t>
+          <t>/lyrics/u2band/breathe.html</t>
         </is>
       </c>
     </row>
@@ -5024,22 +5128,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Burn It Down (Tom Swoon Remix)</t>
+          <t>Cedars Of Lebanon</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "No Line On The Horizon" (2009)</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/burnitdowntomswoonremix.html</t>
+          <t>/lyrics/u2band/cedarsoflebanon.html</t>
         </is>
       </c>
     </row>
@@ -5049,22 +5153,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Until It Breaks (Datsik Remix)</t>
+          <t>The Miracle (Of Joey Ramone)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/untilitbreaksdatsikremix.html</t>
+          <t>/lyrics/u2band/themiracleofjoeyramone.html</t>
         </is>
       </c>
     </row>
@@ -5074,22 +5178,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Skin To Bone (Nick Catchdubs Remix)</t>
+          <t>Every Breaking Wave</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/skintobonenickcatchdubsremix.html</t>
+          <t>/lyrics/u2band/everybreakingwave.html</t>
         </is>
       </c>
     </row>
@@ -5099,22 +5203,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Ill Be Gone (Schoolboy Remix)</t>
+          <t>California (There Is No End To Love)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/illbegoneschoolboyremix.html</t>
+          <t>/lyrics/u2band/californiathereisnoendtolove.html</t>
         </is>
       </c>
     </row>
@@ -5124,22 +5228,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Until It Breaks (Money Mark Headphone Remix)</t>
+          <t>Song For Someone</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/untilitbreaksmoneymarkheadphoneremix.html</t>
+          <t>/lyrics/u2band/songforsomeone.html</t>
         </is>
       </c>
     </row>
@@ -5149,22 +5253,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>A Light That Never Comes (Rick Rubin Remix)</t>
+          <t>Iris (Hold Me Close)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/alightthatnevercomesrickrubinremix.html</t>
+          <t>/lyrics/u2band/irisholdmeclose.html</t>
         </is>
       </c>
     </row>
@@ -5174,22 +5278,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Burn It Down (Paul Van Dyk Remix)</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>remix album: "Recharged" (2013)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/burnitdownpaulvandykremix.html</t>
+          <t>/lyrics/u2band/volcano.html</t>
         </is>
       </c>
     </row>
@@ -5199,22 +5303,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Primo (Ill Be Gone, Longform 2010 Demo)</t>
+          <t>Raised By Wolves</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>demo: "LP Underground XIII" (2013)(LPU XIII)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/primoillbegonelongform2010demo.html</t>
+          <t>/lyrics/u2band/raisedbywolves.html</t>
         </is>
       </c>
     </row>
@@ -5224,22 +5328,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Apaches (Until It Breaks Demo, No. 1)</t>
+          <t>Cedarwood Road</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>demo: "LP Underground XIII" (2013)(LPU XIII)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/apachesuntilitbreaksdemono1.html</t>
+          <t>/lyrics/u2band/cedarwoodroad.html</t>
         </is>
       </c>
     </row>
@@ -5249,22 +5353,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Foot Patrol (Until It Breaks Demo, No. 2)</t>
+          <t>Sleep Like A Baby Tonight</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>demo: "LP Underground XIII" (2013)(LPU XIII)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/footpatroluntilitbreaksdemono2.html</t>
+          <t>/lyrics/u2band/sleeplikeababytonight.html</t>
         </is>
       </c>
     </row>
@@ -5274,22 +5378,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Three Band Terror (Until It Breaks, No. 3)</t>
+          <t>This Is Where You Can Reach Me Now</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>demo: "LP Underground XIII" (2013)(LPU XIII)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/threebandterroruntilitbreaksno3.html</t>
+          <t>/lyrics/u2band/thisiswhereyoucanreachmenow.html</t>
         </is>
       </c>
     </row>
@@ -5299,22 +5403,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Change (By Beta State, LPU Sessions 2013)</t>
+          <t>The Troubles</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>demo: "LP Underground XIII" (2013)(LPU XIII)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/changebybetastatelpusessions2013.html</t>
+          <t>/lyrics/u2band/thetroubles.html</t>
         </is>
       </c>
     </row>
@@ -5324,22 +5428,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Keys To The Kingdom</t>
+          <t>Lucifers Hands(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/keystothekingdom.html</t>
+          <t>/lyrics/u2band/lucifershands.html</t>
         </is>
       </c>
     </row>
@@ -5349,22 +5453,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>All For Nothing</t>
+          <t>The Crystal Ballroom(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/allfornothing.html</t>
+          <t>/lyrics/u2band/thecrystalballroom.html</t>
         </is>
       </c>
     </row>
@@ -5374,22 +5478,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Guilty All The Same</t>
+          <t>The Troubles (Alternative Version)(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/guiltyallthesame.html</t>
+          <t>/lyrics/u2band/thetroublesalternativeversion.html</t>
         </is>
       </c>
     </row>
@@ -5399,20 +5503,24 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>The Summoning(Instrumental)</t>
+          <t>Sleep Like A Baby Tonight (Alternative Mix)(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
+          <t>album: "Songs Of Innocence" (2014)</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/sleeplikeababytonightalternativemix.html</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5420,22 +5528,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>War</t>
+          <t>Invisible(Hidden Track)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/war.html</t>
+          <t>/lyrics/u2band/invisible.html</t>
         </is>
       </c>
     </row>
@@ -5445,22 +5553,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Wastelands</t>
+          <t>The Crystal Ballroom (12" Mix)(Vinyl Bonus Track)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
+          <t>album: "Songs Of Innocence" (2014)</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/wastelands.html</t>
+          <t>/lyrics/u2band/thecrystalballroom12mix.html</t>
         </is>
       </c>
     </row>
@@ -5470,22 +5578,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Until Its Gone</t>
+          <t>Love Is All We Have Left</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
+          <t>album: "Songs Of Experience" (2017)</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/untilitsgone.html</t>
+          <t>/lyrics/u2band/loveisallwehaveleft.html</t>
         </is>
       </c>
     </row>
@@ -5495,22 +5603,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Rebellion</t>
+          <t>Lights Of Home</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
+          <t>album: "Songs Of Experience" (2017)</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/rebellion.html</t>
+          <t>/lyrics/u2band/lightsofhome.html</t>
         </is>
       </c>
     </row>
@@ -5520,22 +5628,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Mark The Graves</t>
+          <t>Youre The Best Thing About Me</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
+          <t>album: "Songs Of Experience" (2017)</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/markthegraves.html</t>
+          <t>/lyrics/u2band/yourethebestthingaboutme.html</t>
         </is>
       </c>
     </row>
@@ -5545,20 +5653,24 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Drawbar(Instrumental)</t>
+          <t>Get Out Of Your Own Way</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
+          <t>album: "Songs Of Experience" (2017)</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/getoutofyourownway.html</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5566,22 +5678,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Final Masquerade</t>
+          <t>American Soul</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
+          <t>album: "Songs Of Experience" (2017)</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/finalmasquerade.html</t>
+          <t>/lyrics/u2band/americansoul.html</t>
         </is>
       </c>
     </row>
@@ -5591,22 +5703,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A Line In The Sand</t>
+          <t>Summer Of Love</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>album: "The Hunting Party" (2014)</t>
+          <t>album: "Songs Of Experience" (2017)</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/alineinthesand.html</t>
+          <t>/lyrics/u2band/summeroflove.html</t>
         </is>
       </c>
     </row>
@@ -5616,22 +5728,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Breaking The Habit (Original Mike 2002 Demo)</t>
+          <t>Red Flag Day</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>demo: "LP Underground XIV" (2014)(LPU XIV)</t>
+          <t>album: "Songs Of Experience" (2017)</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/breakingthehabitoriginalmike2002demo.html</t>
+          <t>/lyrics/u2band/redflagday.html</t>
         </is>
       </c>
     </row>
@@ -5641,22 +5753,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Dave Sbeat</t>
+          <t>The Showman (Little More Better)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>demo: "LP Underground XIV" (2014)(LPU XIV)</t>
+          <t>album: "Songs Of Experience" (2017)</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/davesbeat.html</t>
+          <t>/lyrics/u2band/theshowmanlittlemorebetter.html</t>
         </is>
       </c>
     </row>
@@ -5666,22 +5778,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>White Noise</t>
+          <t>The Little Things That Give You Away</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+          <t>album: "Songs Of Experience" (2017)</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/whitenoise.html</t>
+          <t>/lyrics/u2band/thelittlethingsthatgiveyouaway.html</t>
         </is>
       </c>
     </row>
@@ -5691,20 +5803,24 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Jeff Walks(Instrumental)</t>
+          <t>Landlady</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
+          <t>album: "Songs Of Experience" (2017)</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/landlady.html</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5712,20 +5828,24 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Mall Blueprint(Instrumental)</t>
+          <t>The Blackout</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
+          <t>album: "Songs Of Experience" (2017)</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/theblackout.html</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5733,20 +5853,24 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Jeff Makes Observations(Instrumental)</t>
+          <t>Love Is Bigger Than Anything In Its Way</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr"/>
+          <t>album: "Songs Of Experience" (2017)</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/loveisbiggerthananythinginitsway.html</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5754,20 +5878,24 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Mal Rx7(Instrumental)</t>
+          <t>13 (There Is A Light)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
+          <t>album: "Songs Of Experience" (2017)</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/13thereisalight.html</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5775,20 +5903,24 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Barrys Story(Instrumental)</t>
+          <t>Ordinary Love (Extraordinary Mix)(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
+          <t>album: "Songs Of Experience" (2017)</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/ordinaryloveextraordinarymix.html</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5796,20 +5928,24 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Changing Room Tease(Instrumental)</t>
+          <t>Book Of Your Heart(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr"/>
+          <t>album: "Songs Of Experience" (2017)</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/bookofyourheart.html</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5817,20 +5953,24 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Danny In Police Car - Mal Gears Up(Instrumental)</t>
+          <t>Lights Of Home (St Peters String Version)(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr"/>
+          <t>album: "Songs Of Experience" (2017)</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/lightsofhomestpetersstringversion.html</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5838,20 +5978,24 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Mal Gives Barry Second Chance - Mal Unloads(Instrumental)</t>
+          <t>Youre The Best Thing About Me (U2 vs. Kygo)(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr"/>
+          <t>album: "Songs Of Experience" (2017)</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/yourethebestthingaboutmeu2vskygo.html</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -5859,20 +6003,24 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Mall Carnage - Mal Stalked(Instrumental)</t>
+          <t>A Celebration</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/acelebration.html</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5880,22 +6028,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>It Goes Through</t>
+          <t>Ahimsa</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/itgoesthrough.html</t>
+          <t>/lyrics/u2band/ahimsa.html</t>
         </is>
       </c>
     </row>
@@ -5905,20 +6053,24 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Cops Arrive(Instrumental)</t>
+          <t>Alex Descends Into Hell For A Bottle Of Milk / Korova 1(from "The Fly" single)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/alexdescendsintohellforabottleofmilkkorova1.html</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5926,20 +6078,24 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Dannys Lucky Day(Instrumental)</t>
+          <t>Another Day</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/anotherday.html</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -5947,20 +6103,24 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Jeff Philosophizes To Donna(Instrumental)</t>
+          <t>Atomic City</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/atomiccity.html</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5968,20 +6128,24 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Jeff And Donna Connect(Instrumental)</t>
+          <t>Bang A Gong (Get It On)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/bangagonggetiton.html</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -5989,20 +6153,24 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Jeff Trips In The Mirror(Instrumental)</t>
+          <t>Boy-Girl</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/boygirl.html</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6010,20 +6178,24 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Adele And Danny In The Backseat(Instrumental)</t>
+          <t>Christmas (Baby, Please Come Home)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/christmasbabypleasecomehome.html</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6031,20 +6203,24 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Mal Vs. Helicopter(Instrumental)</t>
+          <t>Electrical Storm</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/electricalstorm.html</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6052,22 +6228,22 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Devils Drop</t>
+          <t>Everybody Loves A Winner</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/devilsdrop.html</t>
+          <t>/lyrics/u2band/everybodylovesawinner.html</t>
         </is>
       </c>
     </row>
@@ -6077,20 +6253,24 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TV Comes To Life - Mal And Jeff(Instrumental)</t>
+          <t>Fortunate Son</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/fortunateson.html</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6098,22 +6278,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>The Last Line</t>
+          <t>Hold Me, Thrill Me, Kiss Me, Kill Me</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/thelastline.html</t>
+          <t>/lyrics/u2band/holdmethrillmekissmekillme.html</t>
         </is>
       </c>
     </row>
@@ -6123,20 +6303,24 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Danny Goes Home(Instrumental)</t>
+          <t>I Believe In Father Christmas</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/ibelieveinfatherchristmas.html</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6144,20 +6328,24 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Dancer(Instrumental)</t>
+          <t>Ive Got You Under My Skin</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>soundtrack: "Mall" (2014)(with ALEC PURO)</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/ivegotyouundermyskin.html</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6165,22 +6353,22 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Animals (2011 Demo)</t>
+          <t>Lady With The Spinning Head</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/animals2011demo.html</t>
+          <t>/lyrics/u2band/ladywiththespinninghead.html</t>
         </is>
       </c>
     </row>
@@ -6190,22 +6378,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Basil (2008 Demo)</t>
+          <t>Let Your Love Be Known</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/basil2008demo.html</t>
+          <t>/lyrics/u2band/letyourlovebeknown.html</t>
         </is>
       </c>
     </row>
@@ -6215,20 +6403,24 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Pods 1 Of 3 (1998 Demo)(Instrumental)</t>
+          <t>Love Is Bigger Than Anything In Its Way (U2 x Cheat Codes)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/loveisbiggerthananythinginitswayu2xcheatcodes.html</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6236,20 +6428,24 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Pods 2 Of 3 (1998 Demo)(Instrumental)</t>
+          <t>Night And Day</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/nightandday.html</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6257,20 +6453,24 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Pods 3 Of 3 (1998 Demo)(Instrumental)</t>
+          <t>Ordinary Love</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/ordinarylove.html</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6278,22 +6478,22 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Chance Of Rain (2006 Demo)</t>
+          <t>Paint It Black</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/chanceofrain2006demo.html</t>
+          <t>/lyrics/u2band/paintitblack.html</t>
         </is>
       </c>
     </row>
@@ -6303,22 +6503,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TooLeGit (2010 Demo)</t>
+          <t>Salome(from "Even Better Than The Real Thing" single)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/toolegit2010demo.html</t>
+          <t>/lyrics/u2band/salome.html</t>
         </is>
       </c>
     </row>
@@ -6328,22 +6528,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Grudgematch (2009 Demo)</t>
+          <t>Satellite Of Love</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/grudgematch2009demo.html</t>
+          <t>/lyrics/u2band/satelliteoflove.html</t>
         </is>
       </c>
     </row>
@@ -6353,20 +6553,24 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Hurry (1999 Demo)(Instrumental)</t>
+          <t>Slow Dancing</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/slowdancing.html</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6374,20 +6578,24 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>GRR (1999 Demo)(Instrumental)</t>
+          <t>Stateless(from "The Million Dollar Hotel" soundtrack)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/stateless.html</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6395,20 +6603,24 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Attached (2003 Demo)(Instrumental)</t>
+          <t>The Ground Beneath Her Feet(from "The Million Dollar Hotel" soundtrack)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/thegroundbeneathherfeet.html</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6416,20 +6628,24 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Chair (1999 "Part Of Me" Demo)(Instrumental)</t>
+          <t>The Hands That Built America</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>demo: "LP Underground 15" (2015)</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr"/>
+          <t>other songs:</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>/lyrics/u2band/thehandsthatbuiltamerica.html</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6437,22 +6653,22 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>The Catalyst (2010 Demo)</t>
+          <t>The Saints Are Coming(from "U218 Singles" album)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>EP: "Underground Sixteen" (2016)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/thecatalyst2010demo.html</t>
+          <t>/lyrics/u2band/thesaintsarecoming.html</t>
         </is>
       </c>
     </row>
@@ -6462,22 +6678,22 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Bleed It Out (2007 Demo)</t>
+          <t>Touch</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>EP: "Underground Sixteen" (2016)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/bleeditout2007demo.html</t>
+          <t>/lyrics/u2band/touch.html</t>
         </is>
       </c>
     </row>
@@ -6487,22 +6703,22 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Lies Greed Misery (2010 Demo)</t>
+          <t>Treasure (Whatever Happened To Pete The Chop)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>EP: "Underground Sixteen" (2016)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/liesgreedmisery2010demo.html</t>
+          <t>/lyrics/u2band/treasurewhateverhappenedtopetethechop.html</t>
         </is>
       </c>
     </row>
@@ -6512,22 +6728,22 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Nobody Can Save Me</t>
+          <t>Walk On (Ukraine)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>album: "One More Light" (2017)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/nobodycansaveme.html</t>
+          <t>/lyrics/u2band/walkonukraine.html</t>
         </is>
       </c>
     </row>
@@ -6537,22 +6753,22 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Good Goodbye</t>
+          <t>Whats Going On</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>album: "One More Light" (2017)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/goodgoodbye.html</t>
+          <t>/lyrics/u2band/whatsgoingon.html</t>
         </is>
       </c>
     </row>
@@ -6562,22 +6778,22 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Talking To Myself</t>
+          <t>Where Did It All Go Wrong</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>album: "One More Light" (2017)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/talkingtomyself.html</t>
+          <t>/lyrics/u2band/wherediditallgowrong.html</t>
         </is>
       </c>
     </row>
@@ -6587,22 +6803,22 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Battle Symphony</t>
+          <t>Window In The Skies(from "U218 Singles" album)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>album: "One More Light" (2017)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/battlesymphony.html</t>
+          <t>/lyrics/u2band/windowintheskies.html</t>
         </is>
       </c>
     </row>
@@ -6612,22 +6828,22 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Invisible</t>
+          <t>Winter(from "Linear" soundtrack)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>album: "One More Light" (2017)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/invisible.html</t>
+          <t>/lyrics/u2band/winter.html</t>
         </is>
       </c>
     </row>
@@ -6637,522 +6853,22 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Heavy</t>
+          <t>Your Song Saved My Life(from "Sing 2" soundtrack)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Linkin Park Lyrics</t>
+          <t>U2 Lyrics</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>album: "One More Light" (2017)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>/lyrics/linkinpark/heavy.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Sorry For Now</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>album: "One More Light" (2017)</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/sorryfornow.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Halfway Right</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>album: "One More Light" (2017)</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/halfwayright.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>One More Light</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>album: "One More Light" (2017)</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/onemorelight.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Sharp Edges</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>album: "One More Light" (2017)</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/sharpedges.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Could Have Been</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/couldhavebeen.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Dialate (Xero Demo)</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/dialatexerodemo.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Its Going Down</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/itsgoingdown.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Looking For An Answer</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/lookingforananswer.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>New Divide(from "Transformers: Revenge Of The Fallen" soundtrack)</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/newdivide.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Not Alone</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/notalone.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>One More Light (Steve Aoki Chester Forever Remix)</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/onemorelightsteveaokichesterforeverremix.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Pictureboard</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/pictureboard.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Rolling In The Deep</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/rollinginthedeep.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Starting To Fly</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/startingtofly.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Stick N Move (Demo)</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/sticknmovedemo.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>System(from "Queen Of The Damned" soundtrack)</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/system.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Vertical Limit</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/verticallimit.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Walking Dead</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/walkingdead.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>What Are You Worth?</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/whatareyouworth.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Wish</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Linkin Park Lyrics</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>/lyrics/linkinpark/wish.html</t>
+          <t>/lyrics/u2band/yoursongsavedmylife.html</t>
         </is>
       </c>
     </row>

--- a/datasets/discography_data.xlsx
+++ b/datasets/discography_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E258"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>I Will Follow</t>
+          <t>Hit The Lights</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Kill Em All" (1983)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/iwillfollow.html</t>
+          <t>/lyrics/metallica/hitthelights.html</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Twilight</t>
+          <t>The Four Horsemen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Kill Em All" (1983)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/twilight.html</t>
+          <t>/lyrics/metallica/thefourhorsemen.html</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An Cat Dubh</t>
+          <t>Motorbreath</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Kill Em All" (1983)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/ancatdubh.html</t>
+          <t>/lyrics/metallica/motorbreath.html</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Into The Heart</t>
+          <t>Jump In The Fire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Kill Em All" (1983)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/intotheheart.html</t>
+          <t>/lyrics/metallica/jumpinthefire.html</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Out Of Control</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Kill Em All" (1983)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/outofcontrol.html</t>
+          <t>/lyrics/metallica/whiplash.html</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stories For Boys</t>
+          <t>Phantom Lord</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Kill Em All" (1983)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/storiesforboys.html</t>
+          <t>/lyrics/metallica/phantomlord.html</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Ocean</t>
+          <t>No Remorse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Kill Em All" (1983)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/theocean.html</t>
+          <t>/lyrics/metallica/noremorse.html</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A Day Without Me</t>
+          <t>Seek &amp; Destroy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Kill Em All" (1983)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/adaywithoutme.html</t>
+          <t>/lyrics/metallica/seekdestroy.html</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Another Time, Another Place</t>
+          <t>Metal Militia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Kill Em All" (1983)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/anothertimeanotherplace.html</t>
+          <t>/lyrics/metallica/metalmilitia.html</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Electric Co.</t>
+          <t>Am I Evil?(Bonus Track)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Kill Em All" (1983)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/theelectricco.html</t>
+          <t>/lyrics/metallica/amievil.html</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Shadows And Tall Trees</t>
+          <t>Blitzkrieg(Bonus Track)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>album: "Boy" (1980)</t>
+          <t>album: "Kill Em All" (1983)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/shadowsandtalltrees.html</t>
+          <t>/lyrics/metallica/blitzkrieg.html</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gloria</t>
+          <t>Fight Fire With Fire</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>album: "October" (1981)</t>
+          <t>album: "Ride The Lightning" (1984)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/gloria.html</t>
+          <t>/lyrics/metallica/fightfirewithfire.html</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>I Fall Down</t>
+          <t>Ride The Lightning</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>album: "October" (1981)</t>
+          <t>album: "Ride The Lightning" (1984)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/ifalldown.html</t>
+          <t>/lyrics/metallica/ridethelightning.html</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I Threw A Brick Through A Window</t>
+          <t>For Whom The Bell Tolls</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>album: "October" (1981)</t>
+          <t>album: "Ride The Lightning" (1984)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/ithrewabrickthroughawindow.html</t>
+          <t>/lyrics/metallica/forwhomthebelltolls.html</t>
         </is>
       </c>
     </row>
@@ -811,22 +811,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rejoice</t>
+          <t>Fade To Black</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>album: "October" (1981)</t>
+          <t>album: "Ride The Lightning" (1984)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/rejoice.html</t>
+          <t>/lyrics/metallica/fadetoblack.html</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Trapped Under Ice</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>album: "October" (1981)</t>
+          <t>album: "Ride The Lightning" (1984)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/fire.html</t>
+          <t>/lyrics/metallica/trappedunderice.html</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tomorrow</t>
+          <t>Escape</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>album: "October" (1981)</t>
+          <t>album: "Ride The Lightning" (1984)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/tomorrow.html</t>
+          <t>/lyrics/metallica/escape.html</t>
         </is>
       </c>
     </row>
@@ -886,22 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>Creeping Death</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>album: "October" (1981)</t>
+          <t>album: "Ride The Lightning" (1984)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/october.html</t>
+          <t>/lyrics/metallica/creepingdeath.html</t>
         </is>
       </c>
     </row>
@@ -911,24 +911,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>With A Shout</t>
+          <t>The Call Of Ktulu(Instrumental)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>album: "October" (1981)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/withashout.html</t>
-        </is>
-      </c>
+          <t>album: "Ride The Lightning" (1984)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -936,22 +932,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Stranger In A Strange Land</t>
+          <t>Battery</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>album: "October" (1981)</t>
+          <t>album: "Master Of Puppets" (1986)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/strangerinastrangeland.html</t>
+          <t>/lyrics/metallica/battery.html</t>
         </is>
       </c>
     </row>
@@ -961,22 +957,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Is That All</t>
+          <t>Master Of Puppets</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>album: "October" (1981)</t>
+          <t>album: "Master Of Puppets" (1986)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/isthatall.html</t>
+          <t>/lyrics/metallica/masterofpuppets.html</t>
         </is>
       </c>
     </row>
@@ -986,22 +982,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sunday Bloody Sunday</t>
+          <t>The Thing That Should Not Be</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>album: "War" (1983)</t>
+          <t>album: "Master Of Puppets" (1986)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/sundaybloodysunday.html</t>
+          <t>/lyrics/metallica/thethingthatshouldnotbe.html</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1007,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Seconds</t>
+          <t>Welcome Home (Sanitarium)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>album: "War" (1983)</t>
+          <t>album: "Master Of Puppets" (1986)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/seconds.html</t>
+          <t>/lyrics/metallica/welcomehomesanitarium.html</t>
         </is>
       </c>
     </row>
@@ -1036,22 +1032,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>New Years Day</t>
+          <t>Disposable Heroes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>album: "War" (1983)</t>
+          <t>album: "Master Of Puppets" (1986)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/newyearsday.html</t>
+          <t>/lyrics/metallica/disposableheroes.html</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1057,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Like A Song</t>
+          <t>Leper Messiah</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>album: "War" (1983)</t>
+          <t>album: "Master Of Puppets" (1986)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/likeasong.html</t>
+          <t>/lyrics/metallica/lepermessiah.html</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1082,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Drowning Man</t>
+          <t>Damage, Inc.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>album: "War" (1983)</t>
+          <t>album: "Master Of Puppets" (1986)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/drowningman.html</t>
+          <t>/lyrics/metallica/damageinc.html</t>
         </is>
       </c>
     </row>
@@ -1111,22 +1107,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Refugee</t>
+          <t>Helpless</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>album: "War" (1983)</t>
+          <t>EP: "The $5.98 E.P.: Garage Days Re-Revisited" (1987)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/therefugee.html</t>
+          <t>/lyrics/metallica/helpless.html</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1132,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Two Hearts Beat As One</t>
+          <t>The Small Hours</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>album: "War" (1983)</t>
+          <t>EP: "The $5.98 E.P.: Garage Days Re-Revisited" (1987)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/twoheartsbeatasone.html</t>
+          <t>/lyrics/metallica/thesmallhours.html</t>
         </is>
       </c>
     </row>
@@ -1161,22 +1157,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Red Light</t>
+          <t>The Wait</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>album: "War" (1983)</t>
+          <t>EP: "The $5.98 E.P.: Garage Days Re-Revisited" (1987)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/redlight.html</t>
+          <t>/lyrics/metallica/thewait.html</t>
         </is>
       </c>
     </row>
@@ -1186,22 +1182,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Surrender</t>
+          <t>Crash Course In Brain Surgery</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>album: "War" (1983)</t>
+          <t>EP: "The $5.98 E.P.: Garage Days Re-Revisited" (1987)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/surrender.html</t>
+          <t>/lyrics/metallica/crashcourseinbrainsurgery.html</t>
         </is>
       </c>
     </row>
@@ -1211,22 +1207,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>Last Caress / Green Hell</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>album: "War" (1983)</t>
+          <t>EP: "The $5.98 E.P.: Garage Days Re-Revisited" (1987)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/40.html</t>
+          <t>/lyrics/metallica/lastcaressgreenhell.html</t>
         </is>
       </c>
     </row>
@@ -1236,22 +1232,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A Sort Of Homecoming</t>
+          <t>Blackened</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "...And Justice For All" (1988)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/asortofhomecoming.html</t>
+          <t>/lyrics/metallica/blackened.html</t>
         </is>
       </c>
     </row>
@@ -1261,22 +1257,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pride (In The Name Of Love)</t>
+          <t>...And Justice For All</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "...And Justice For All" (1988)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/prideinthenameoflove.html</t>
+          <t>/lyrics/metallica/andjusticeforall.html</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1282,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Wire</t>
+          <t>Eye Of The Beholder</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "...And Justice For All" (1988)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/wire.html</t>
+          <t>/lyrics/metallica/eyeofthebeholder.html</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1307,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The Unforgettable Fire</t>
+          <t>One</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "...And Justice For All" (1988)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/theunforgettablefire.html</t>
+          <t>/lyrics/metallica/one.html</t>
         </is>
       </c>
     </row>
@@ -1336,22 +1332,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Promenade</t>
+          <t>The Shortest Straw</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "...And Justice For All" (1988)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/promenade.html</t>
+          <t>/lyrics/metallica/theshorteststraw.html</t>
         </is>
       </c>
     </row>
@@ -1361,20 +1357,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4th Of July(Instrumental)</t>
+          <t>Harvester Of Sorrow</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>album: "...And Justice For All" (1988)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>/lyrics/metallica/harvesterofsorrow.html</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1382,22 +1382,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>The Frayed Ends Of Sanity</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "...And Justice For All" (1988)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/bad.html</t>
+          <t>/lyrics/metallica/thefrayedendsofsanity.html</t>
         </is>
       </c>
     </row>
@@ -1407,22 +1407,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Indian Summer Sky</t>
+          <t>To Live Is To Die</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "...And Justice For All" (1988)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/indiansummersky.html</t>
+          <t>/lyrics/metallica/toliveistodie.html</t>
         </is>
       </c>
     </row>
@@ -1432,22 +1432,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Elvis Presley And America</t>
+          <t>Dyers Eve</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "...And Justice For All" (1988)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/elvispresleyandamerica.html</t>
+          <t>/lyrics/metallica/dyerseve.html</t>
         </is>
       </c>
     </row>
@@ -1457,22 +1457,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MLK</t>
+          <t>Enter Sandman</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/mlk.html</t>
+          <t>/lyrics/metallica/entersandman.html</t>
         </is>
       </c>
     </row>
@@ -1482,22 +1482,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Disappearing Act(Bonus Track)</t>
+          <t>Sad But True</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/disappearingact.html</t>
+          <t>/lyrics/metallica/sadbuttrue.html</t>
         </is>
       </c>
     </row>
@@ -1507,22 +1507,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11 OClock Tick Tock(Bonus Track)</t>
+          <t>Holier Than Thou</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/11oclockticktock.html</t>
+          <t>/lyrics/metallica/holierthanthou.html</t>
         </is>
       </c>
     </row>
@@ -1532,22 +1532,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Boomerang II(Bonus Track)</t>
+          <t>The Unforgiven</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>album: "The Unforgettable Fire" (1984)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/boomerangii.html</t>
+          <t>/lyrics/metallica/theunforgiven.html</t>
         </is>
       </c>
     </row>
@@ -1557,22 +1557,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Where The Streets Have No Name</t>
+          <t>Wherever I May Roam</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/wherethestreetshavenoname.html</t>
+          <t>/lyrics/metallica/whereverimayroam.html</t>
         </is>
       </c>
     </row>
@@ -1582,22 +1582,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>I Still Havent Found What Im Looking For</t>
+          <t>Dont Tread On Me</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/istillhaventfoundwhatimlookingfor.html</t>
+          <t>/lyrics/metallica/donttreadonme.html</t>
         </is>
       </c>
     </row>
@@ -1607,22 +1607,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>With Or Without You</t>
+          <t>Through The Never</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/withorwithoutyou.html</t>
+          <t>/lyrics/metallica/throughthenever.html</t>
         </is>
       </c>
     </row>
@@ -1632,22 +1632,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bullet The Blue Sky</t>
+          <t>Nothing Else Matters</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/bulletthebluesky.html</t>
+          <t>/lyrics/metallica/nothingelsematters.html</t>
         </is>
       </c>
     </row>
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Running To Stand Still</t>
+          <t>Of Wolf And Man</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/runningtostandstill.html</t>
+          <t>/lyrics/metallica/ofwolfandman.html</t>
         </is>
       </c>
     </row>
@@ -1682,22 +1682,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Red Hill Mining Town</t>
+          <t>The God That Failed</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/redhillminingtown.html</t>
+          <t>/lyrics/metallica/thegodthatfailed.html</t>
         </is>
       </c>
     </row>
@@ -1707,22 +1707,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>In Gods Country</t>
+          <t>My Friend Of Misery</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/ingodscountry.html</t>
+          <t>/lyrics/metallica/myfriendofmisery.html</t>
         </is>
       </c>
     </row>
@@ -1732,22 +1732,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Trip Through Your Wires</t>
+          <t>The Struggle Within</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Metallica (The Black Album)" (1991)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/tripthroughyourwires.html</t>
+          <t>/lyrics/metallica/thestrugglewithin.html</t>
         </is>
       </c>
     </row>
@@ -1757,22 +1757,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>One Tree Hill</t>
+          <t>Aint My Bitch</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/onetreehill.html</t>
+          <t>/lyrics/metallica/aintmybitch.html</t>
         </is>
       </c>
     </row>
@@ -1782,22 +1782,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Exit</t>
+          <t>2 x 4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/exit.html</t>
+          <t>/lyrics/metallica/2x4.html</t>
         </is>
       </c>
     </row>
@@ -1807,22 +1807,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mothers Of The Disappeared</t>
+          <t>The House Jack Built</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/mothersofthedisappeared.html</t>
+          <t>/lyrics/metallica/thehousejackbuilt.html</t>
         </is>
       </c>
     </row>
@@ -1832,22 +1832,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Desert Of Our Love(Reissue Bonus Track)</t>
+          <t>Until It Sleeps</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/desertofourlove.html</t>
+          <t>/lyrics/metallica/untilitsleeps.html</t>
         </is>
       </c>
     </row>
@@ -1857,22 +1857,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rise Up(Reissue Bonus Track)</t>
+          <t>King Nothing</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/riseup.html</t>
+          <t>/lyrics/metallica/kingnothing.html</t>
         </is>
       </c>
     </row>
@@ -1882,22 +1882,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Drunk Chicken/America(Reissue Bonus Track)</t>
+          <t>Hero Of The Day</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/drunkchickenamerica.html</t>
+          <t>/lyrics/metallica/herooftheday.html</t>
         </is>
       </c>
     </row>
@@ -1907,22 +1907,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Deep In The Heart</t>
+          <t>Bleeding Me</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/deepintheheart.html</t>
+          <t>/lyrics/metallica/bleedingme.html</t>
         </is>
       </c>
     </row>
@@ -1932,22 +1932,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sweetest Thing</t>
+          <t>Cure</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/sweetestthing.html</t>
+          <t>/lyrics/metallica/cure.html</t>
         </is>
       </c>
     </row>
@@ -1957,22 +1957,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Race Against Time(Reissue Bonus Track)</t>
+          <t>Poor Twisted Me</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>album: "The Joshua Tree" (1987)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/raceagainsttime.html</t>
+          <t>/lyrics/metallica/poortwistedme.html</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Helter Skelter</t>
+          <t>Wasting My Hate</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/helterskelter.html</t>
+          <t>/lyrics/metallica/wastingmyhate.html</t>
         </is>
       </c>
     </row>
@@ -2007,22 +2007,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Van Diemens Land</t>
+          <t>Mama Said</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/vandiemensland.html</t>
+          <t>/lyrics/metallica/mamasaid.html</t>
         </is>
       </c>
     </row>
@@ -2032,22 +2032,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Desire</t>
+          <t>Thorn Within</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/desire.html</t>
+          <t>/lyrics/metallica/thornwithin.html</t>
         </is>
       </c>
     </row>
@@ -2057,22 +2057,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hawkmoon 269</t>
+          <t>Ronnie</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/hawkmoon269.html</t>
+          <t>/lyrics/metallica/ronnie.html</t>
         </is>
       </c>
     </row>
@@ -2082,22 +2082,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>All Along The Watchtower</t>
+          <t>The Outlaw Torn</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Load" (1996)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/allalongthewatchtower.html</t>
+          <t>/lyrics/metallica/theoutlawtorn.html</t>
         </is>
       </c>
     </row>
@@ -2107,22 +2107,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>I Still Havent Found What Im Looking For</t>
+          <t>Fuel</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/istillhaventfoundwhatimlookingfor.html</t>
+          <t>/lyrics/metallica/fuel.html</t>
         </is>
       </c>
     </row>
@@ -2132,22 +2132,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Freedom For My People</t>
+          <t>The Memory Remains</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/freedomformypeople.html</t>
+          <t>/lyrics/metallica/thememoryremains.html</t>
         </is>
       </c>
     </row>
@@ -2157,22 +2157,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Silver And Gold</t>
+          <t>Devils Dance</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/silverandgold.html</t>
+          <t>/lyrics/metallica/devilsdance.html</t>
         </is>
       </c>
     </row>
@@ -2182,22 +2182,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Pride (In The Name Of Love)</t>
+          <t>The Unforgiven II</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/prideinthenameoflove.html</t>
+          <t>/lyrics/metallica/theunforgivenii.html</t>
         </is>
       </c>
     </row>
@@ -2207,22 +2207,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Angel Of Harlem</t>
+          <t>Better Than You</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/angelofharlem.html</t>
+          <t>/lyrics/metallica/betterthanyou.html</t>
         </is>
       </c>
     </row>
@@ -2232,22 +2232,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Love Rescue Me</t>
+          <t>Slither</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/loverescueme.html</t>
+          <t>/lyrics/metallica/slither.html</t>
         </is>
       </c>
     </row>
@@ -2257,22 +2257,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>When Love Comes To Town</t>
+          <t>Carpe Diem Baby</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/whenlovecomestotown.html</t>
+          <t>/lyrics/metallica/carpediembaby.html</t>
         </is>
       </c>
     </row>
@@ -2282,22 +2282,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Heartland</t>
+          <t>Bad Seed</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/heartland.html</t>
+          <t>/lyrics/metallica/badseed.html</t>
         </is>
       </c>
     </row>
@@ -2307,22 +2307,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>God Part II</t>
+          <t>Where The Wild Things Are</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/godpartii.html</t>
+          <t>/lyrics/metallica/wherethewildthingsare.html</t>
         </is>
       </c>
     </row>
@@ -2332,20 +2332,24 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>The Star Spangled Banner(Instrumental)</t>
+          <t>Prince Charming</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>album: "Reload" (1997)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>/lyrics/metallica/princecharming.html</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2353,22 +2357,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Bullet The Blue Sky (Live)</t>
+          <t>Low Mans Lyric</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/bullettheblueskylive.html</t>
+          <t>/lyrics/metallica/lowmanslyric.html</t>
         </is>
       </c>
     </row>
@@ -2378,22 +2382,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>All I Want Is You</t>
+          <t>Attitude</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>album: "Rattle And Hum" (1988)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/alliwantisyou.html</t>
+          <t>/lyrics/metallica/attitude.html</t>
         </is>
       </c>
     </row>
@@ -2403,22 +2407,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Zoo Station</t>
+          <t>Fixxxer</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>album: "Reload" (1997)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/zoostation.html</t>
+          <t>/lyrics/metallica/fixxxer.html</t>
         </is>
       </c>
     </row>
@@ -2428,22 +2432,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Even Better Than The Real Thing</t>
+          <t>Free Speech For The Dumb</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/evenbetterthantherealthing.html</t>
+          <t>/lyrics/metallica/freespeechforthedumb.html</t>
         </is>
       </c>
     </row>
@@ -2453,22 +2457,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>One</t>
+          <t>Its Electric</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/one.html</t>
+          <t>/lyrics/metallica/itselectric.html</t>
         </is>
       </c>
     </row>
@@ -2478,22 +2482,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Until The End Of The World</t>
+          <t>Sabbra Cadabra</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/untiltheendoftheworld.html</t>
+          <t>/lyrics/metallica/sabbracadabra.html</t>
         </is>
       </c>
     </row>
@@ -2503,22 +2507,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Whos Gonna Ride Your Wild Horses</t>
+          <t>Turn The Page</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/whosgonnarideyourwildhorses.html</t>
+          <t>/lyrics/metallica/turnthepage.html</t>
         </is>
       </c>
     </row>
@@ -2528,22 +2532,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>So Cruel</t>
+          <t>Die, Die My Darling</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/socruel.html</t>
+          <t>/lyrics/metallica/diediemydarling.html</t>
         </is>
       </c>
     </row>
@@ -2553,22 +2557,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>The Fly</t>
+          <t>Loverman</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/thefly.html</t>
+          <t>/lyrics/metallica/loverman.html</t>
         </is>
       </c>
     </row>
@@ -2578,22 +2582,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mysterious Ways</t>
+          <t>Mercyful Fate</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/mysteriousways.html</t>
+          <t>/lyrics/metallica/mercyfulfate.html</t>
         </is>
       </c>
     </row>
@@ -2603,22 +2607,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tryin To Throw Your Arms Around The World</t>
+          <t>Astronomy</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/tryintothrowyourarmsaroundtheworld.html</t>
+          <t>/lyrics/metallica/astronomy.html</t>
         </is>
       </c>
     </row>
@@ -2628,22 +2632,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ultraviolet (Light My Way)</t>
+          <t>Whiskey In The Jar</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/ultravioletlightmyway.html</t>
+          <t>/lyrics/metallica/whiskeyinthejar.html</t>
         </is>
       </c>
     </row>
@@ -2653,22 +2657,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Acrobat</t>
+          <t>Tuesdays Gone</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/acrobat.html</t>
+          <t>/lyrics/metallica/tuesdaysgone.html</t>
         </is>
       </c>
     </row>
@@ -2678,22 +2682,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Love Is Blindness</t>
+          <t>The More I See</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/loveisblindness.html</t>
+          <t>/lyrics/metallica/themoreisee.html</t>
         </is>
       </c>
     </row>
@@ -2703,22 +2707,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Blow Your House Down(Reissue Bonus Track)</t>
+          <t>Helpless</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>album: "Achtung Baby" (1991)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/blowyourhousedown.html</t>
+          <t>/lyrics/metallica/helpless.html</t>
         </is>
       </c>
     </row>
@@ -2728,22 +2732,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Zooropa</t>
+          <t>The Small Hours</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>album: "Zooropa" (1993)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/zooropa.html</t>
+          <t>/lyrics/metallica/thesmallhours.html</t>
         </is>
       </c>
     </row>
@@ -2753,22 +2757,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Babyface</t>
+          <t>The Wait</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>album: "Zooropa" (1993)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/babyface.html</t>
+          <t>/lyrics/metallica/thewait.html</t>
         </is>
       </c>
     </row>
@@ -2778,22 +2782,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Numb</t>
+          <t>Crash Course In Brain Surgery</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>album: "Zooropa" (1993)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/numb.html</t>
+          <t>/lyrics/metallica/crashcourseinbrainsurgery.html</t>
         </is>
       </c>
     </row>
@@ -2803,22 +2807,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lemon</t>
+          <t>Last Caress / Green Hell</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>album: "Zooropa" (1993)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/lemon.html</t>
+          <t>/lyrics/metallica/lastcaressgreenhell.html</t>
         </is>
       </c>
     </row>
@@ -2828,22 +2832,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Stay (Faraway, So Close!)</t>
+          <t>Am I Evil?</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>album: "Zooropa" (1993)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/stayfarawaysoclose.html</t>
+          <t>/lyrics/metallica/amievil.html</t>
         </is>
       </c>
     </row>
@@ -2853,22 +2857,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Daddys Gonna Pay For Your Crashed Car</t>
+          <t>Blitzkrieg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>album: "Zooropa" (1993)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/daddysgonnapayforyourcrashedcar.html</t>
+          <t>/lyrics/metallica/blitzkrieg.html</t>
         </is>
       </c>
     </row>
@@ -2878,22 +2882,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Some Days Are Better Than Others</t>
+          <t>Breadfan</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>album: "Zooropa" (1993)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/somedaysarebetterthanothers.html</t>
+          <t>/lyrics/metallica/breadfan.html</t>
         </is>
       </c>
     </row>
@@ -2903,22 +2907,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>The First Time</t>
+          <t>The Prince</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>album: "Zooropa" (1993)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/thefirsttime.html</t>
+          <t>/lyrics/metallica/theprince.html</t>
         </is>
       </c>
     </row>
@@ -2928,22 +2932,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dirty Day</t>
+          <t>Stone Cold Crazy</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>album: "Zooropa" (1993)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/dirtyday.html</t>
+          <t>/lyrics/metallica/stonecoldcrazy.html</t>
         </is>
       </c>
     </row>
@@ -2953,22 +2957,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>The Wanderer</t>
+          <t>So What</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>album: "Zooropa" (1993)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/thewanderer.html</t>
+          <t>/lyrics/metallica/sowhat.html</t>
         </is>
       </c>
     </row>
@@ -2978,22 +2982,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Slug</t>
+          <t>Killing Time</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>soundtrack: "Passengers" (1995)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/slug.html</t>
+          <t>/lyrics/metallica/killingtime.html</t>
         </is>
       </c>
     </row>
@@ -3003,22 +3007,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Your Blue Room</t>
+          <t>Overkill</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>soundtrack: "Passengers" (1995)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/yourblueroom.html</t>
+          <t>/lyrics/metallica/overkill.html</t>
         </is>
       </c>
     </row>
@@ -3028,22 +3032,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>A Different Kind Of Blue</t>
+          <t>Damage Case</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>soundtrack: "Passengers" (1995)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/adifferentkindofblue.html</t>
+          <t>/lyrics/metallica/damagecase.html</t>
         </is>
       </c>
     </row>
@@ -3053,22 +3057,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Miss Sarajevo</t>
+          <t>Stone Dead Forever</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>soundtrack: "Passengers" (1995)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/misssarajevo.html</t>
+          <t>/lyrics/metallica/stonedeadforever.html</t>
         </is>
       </c>
     </row>
@@ -3078,22 +3082,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ito Okashi</t>
+          <t>Too Late Too Late</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>soundtrack: "Passengers" (1995)</t>
+          <t>compilation: "Garage Inc." (1998)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/itookashi.html</t>
+          <t>/lyrics/metallica/toolatetoolate.html</t>
         </is>
       </c>
     </row>
@@ -3103,22 +3107,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Elvis Ate America</t>
+          <t>Frantic</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>soundtrack: "Passengers" (1995)</t>
+          <t>album: "St. Anger" (2003)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/elvisateamerica.html</t>
+          <t>/lyrics/metallica/frantic.html</t>
         </is>
       </c>
     </row>
@@ -3128,22 +3132,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Discotheque</t>
+          <t>St. Anger</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "St. Anger" (2003)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/discotheque.html</t>
+          <t>/lyrics/metallica/stanger.html</t>
         </is>
       </c>
     </row>
@@ -3153,22 +3157,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Do You Feel Loved</t>
+          <t>Some Kind Of Monster</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "St. Anger" (2003)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/doyoufeelloved.html</t>
+          <t>/lyrics/metallica/somekindofmonster.html</t>
         </is>
       </c>
     </row>
@@ -3178,22 +3182,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Mofo</t>
+          <t>Dirty Window</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "St. Anger" (2003)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/mofo.html</t>
+          <t>/lyrics/metallica/dirtywindow.html</t>
         </is>
       </c>
     </row>
@@ -3203,22 +3207,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>If God Will Send His Angels</t>
+          <t>Invisible Kid</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "St. Anger" (2003)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/ifgodwillsendhisangels.html</t>
+          <t>/lyrics/metallica/invisiblekid.html</t>
         </is>
       </c>
     </row>
@@ -3228,22 +3232,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Staring At The Sun</t>
+          <t>My World</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "St. Anger" (2003)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/staringatthesun.html</t>
+          <t>/lyrics/metallica/myworld.html</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3257,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Last Night On Earth</t>
+          <t>Shoot Me Again</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "St. Anger" (2003)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/lastnightonearth.html</t>
+          <t>/lyrics/metallica/shootmeagain.html</t>
         </is>
       </c>
     </row>
@@ -3278,22 +3282,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Gone</t>
+          <t>Sweet Amber</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "St. Anger" (2003)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/gone.html</t>
+          <t>/lyrics/metallica/sweetamber.html</t>
         </is>
       </c>
     </row>
@@ -3303,22 +3307,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>The Unnamed Feeling</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "St. Anger" (2003)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/miami.html</t>
+          <t>/lyrics/metallica/unnamedfeeling.html</t>
         </is>
       </c>
     </row>
@@ -3328,22 +3332,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Playboy Mansion</t>
+          <t>Purify</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "St. Anger" (2003)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/playboymansion.html</t>
+          <t>/lyrics/metallica/purify.html</t>
         </is>
       </c>
     </row>
@@ -3353,22 +3357,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>If You Wear That Velvet Dress</t>
+          <t>All Within My Hands</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "St. Anger" (2003)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/ifyouwearthatvelvetdress.html</t>
+          <t>/lyrics/metallica/allwithinmyhands.html</t>
         </is>
       </c>
     </row>
@@ -3378,22 +3382,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Please</t>
+          <t>That Was Just Your Life</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "Death Magnetic" (2008)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/please.html</t>
+          <t>/lyrics/metallica/thatwasjustyourlife.html</t>
         </is>
       </c>
     </row>
@@ -3403,22 +3407,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Wake Up Dead Man</t>
+          <t>The End Of The Line</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "Death Magnetic" (2008)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/wakeupdeadman.html</t>
+          <t>/lyrics/metallica/theendoftheline.html</t>
         </is>
       </c>
     </row>
@@ -3428,22 +3432,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Holy Joe (Guilty Mix)(Japan Bonus Track)</t>
+          <t>Broken, Beat &amp; Scarred</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>album: "Pop" (1997)</t>
+          <t>album: "Death Magnetic" (2008)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/holyjoeguiltymix.html</t>
+          <t>/lyrics/metallica/brokenbeatscarred.html</t>
         </is>
       </c>
     </row>
@@ -3453,22 +3457,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Three Sunrises</t>
+          <t>The Day That Never Comes</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Death Magnetic" (2008)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/threesunrises.html</t>
+          <t>/lyrics/metallica/thedaythatnevercomes.html</t>
         </is>
       </c>
     </row>
@@ -3478,22 +3482,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Spanish Eyes</t>
+          <t>All Nightmare Long</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Death Magnetic" (2008)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/spanisheyes.html</t>
+          <t>/lyrics/metallica/allnightmarelong.html</t>
         </is>
       </c>
     </row>
@@ -3503,22 +3507,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>The Sweetest Thing</t>
+          <t>Cyanide</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Death Magnetic" (2008)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/thesweetestthing.html</t>
+          <t>/lyrics/metallica/cyanide.html</t>
         </is>
       </c>
     </row>
@@ -3528,22 +3532,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Love Comes Tumbling</t>
+          <t>The Unforgiven III</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Death Magnetic" (2008)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/lovecomestumbling.html</t>
+          <t>/lyrics/metallica/theunforgiveniii.html</t>
         </is>
       </c>
     </row>
@@ -3553,22 +3557,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Dancing Barefoot</t>
+          <t>The Judas Kiss</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Death Magnetic" (2008)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/dancingbarefoot.html</t>
+          <t>/lyrics/metallica/thejudaskiss.html</t>
         </is>
       </c>
     </row>
@@ -3578,22 +3582,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Everlasting Love</t>
+          <t>My Apocalypse</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Death Magnetic" (2008)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/everlastinglove.html</t>
+          <t>/lyrics/metallica/myapocalypse.html</t>
         </is>
       </c>
     </row>
@@ -3603,22 +3607,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Unchained Melody</t>
+          <t>Brandenburg Gate</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Lulu" (2011)(with Lou Reed)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/unchainedmelody.html</t>
+          <t>/lyrics/metallica/brandenburggate.html</t>
         </is>
       </c>
     </row>
@@ -3628,22 +3632,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Walk To The Water</t>
+          <t>The View</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Lulu" (2011)(with Lou Reed)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/walktothewater.html</t>
+          <t>/lyrics/metallica/theview.html</t>
         </is>
       </c>
     </row>
@@ -3653,22 +3657,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Luminous Times (Hold On To Love)</t>
+          <t>Pumping Blood</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Lulu" (2011)(with Lou Reed)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/luminoustimesholdontolove.html</t>
+          <t>/lyrics/metallica/pumpingblood.html</t>
         </is>
       </c>
     </row>
@@ -3678,22 +3682,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hallelujah  (Here She Comes)</t>
+          <t>Mistress Dread</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Lulu" (2011)(with Lou Reed)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/hallelujahhereshecomes.html</t>
+          <t>/lyrics/metallica/mistressdread.html</t>
         </is>
       </c>
     </row>
@@ -3703,22 +3707,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Silver And Gold</t>
+          <t>Iced Honey</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Lulu" (2011)(with Lou Reed)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/silverandgold.html</t>
+          <t>/lyrics/metallica/icedhoney.html</t>
         </is>
       </c>
     </row>
@@ -3728,22 +3732,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Endless Deep</t>
+          <t>Cheat On Me</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Lulu" (2011)(with Lou Reed)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/endlessdeep.html</t>
+          <t>/lyrics/metallica/cheatonme.html</t>
         </is>
       </c>
     </row>
@@ -3753,22 +3757,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A Room At The Heartbreak Hotel</t>
+          <t>Frustration</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Lulu" (2011)(with Lou Reed)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/aroomattheheartbreakhotel.html</t>
+          <t>/lyrics/metallica/frustration.html</t>
         </is>
       </c>
     </row>
@@ -3778,22 +3782,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Party Girl</t>
+          <t>Little Dog</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>compilation: "The Best Of 1980-1990" (1998)</t>
+          <t>album: "Lulu" (2011)(with Lou Reed)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/partygirl.html</t>
+          <t>/lyrics/metallica/littledog.html</t>
         </is>
       </c>
     </row>
@@ -3803,22 +3807,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Beautiful Day</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>album: "All That You Cant Leave Behind" (2000)</t>
+          <t>album: "Lulu" (2011)(with Lou Reed)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/beautifulday.html</t>
+          <t>/lyrics/metallica/dragon.html</t>
         </is>
       </c>
     </row>
@@ -3828,22 +3832,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Elevation</t>
+          <t>Junior Dad</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>album: "All That You Cant Leave Behind" (2000)</t>
+          <t>album: "Lulu" (2011)(with Lou Reed)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/elevation.html</t>
+          <t>/lyrics/metallica/juniordad.html</t>
         </is>
       </c>
     </row>
@@ -3853,22 +3857,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Walk On</t>
+          <t>Hate Train</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>album: "All That You Cant Leave Behind" (2000)</t>
+          <t>EP: "Beyond Magnetic" (2011)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/walkon.html</t>
+          <t>/lyrics/metallica/hatetrain.html</t>
         </is>
       </c>
     </row>
@@ -3878,22 +3882,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Stuck In A Moment You Cant Get Out Of</t>
+          <t>Just A Bullet Away</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>album: "All That You Cant Leave Behind" (2000)</t>
+          <t>EP: "Beyond Magnetic" (2011)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/stuckinamomentyoucantgetoutof.html</t>
+          <t>/lyrics/metallica/justabulletaway.html</t>
         </is>
       </c>
     </row>
@@ -3903,22 +3907,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Peace On Earth</t>
+          <t>Hell And Back</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>album: "All That You Cant Leave Behind" (2000)</t>
+          <t>EP: "Beyond Magnetic" (2011)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/peaceonearth.html</t>
+          <t>/lyrics/metallica/hellandback.html</t>
         </is>
       </c>
     </row>
@@ -3928,22 +3932,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Kite</t>
+          <t>Rebel Of Babylon</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>album: "All That You Cant Leave Behind" (2000)</t>
+          <t>EP: "Beyond Magnetic" (2011)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/kite.html</t>
+          <t>/lyrics/metallica/rebelofbabylon.html</t>
         </is>
       </c>
     </row>
@@ -3953,22 +3957,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Hardwired</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>album: "All That You Cant Leave Behind" (2000)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/newyork.html</t>
+          <t>/lyrics/metallica/hardwired.html</t>
         </is>
       </c>
     </row>
@@ -3978,22 +3982,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>In A Little While</t>
+          <t>Atlas, Rise!</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>album: "All That You Cant Leave Behind" (2000)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/inalittlewhile.html</t>
+          <t>/lyrics/metallica/atlasrise.html</t>
         </is>
       </c>
     </row>
@@ -4003,22 +4007,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Wild Honey</t>
+          <t>Now That Were Dead</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>album: "All That You Cant Leave Behind" (2000)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/wildhoney.html</t>
+          <t>/lyrics/metallica/nowthatweredead.html</t>
         </is>
       </c>
     </row>
@@ -4028,22 +4032,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>When I Look At The World</t>
+          <t>Moth Into Flame</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>album: "All That You Cant Leave Behind" (2000)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/whenilookattheworld.html</t>
+          <t>/lyrics/metallica/mothintoflame.html</t>
         </is>
       </c>
     </row>
@@ -4053,22 +4057,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Dream No More</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>album: "All That You Cant Leave Behind" (2000)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/grace.html</t>
+          <t>/lyrics/metallica/dreamnomore.html</t>
         </is>
       </c>
     </row>
@@ -4078,22 +4082,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Vertigo</t>
+          <t>Halo On Fire</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/vertigo.html</t>
+          <t>/lyrics/metallica/haloonfire.html</t>
         </is>
       </c>
     </row>
@@ -4103,22 +4107,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Miracle Drug</t>
+          <t>Confusion</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/miracledrug.html</t>
+          <t>/lyrics/metallica/confusion.html</t>
         </is>
       </c>
     </row>
@@ -4128,22 +4132,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sometimes You Cant Make It On Your Own</t>
+          <t>ManUNkind</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/sometimesyoucantmakeitonyourown.html</t>
+          <t>/lyrics/metallica/manunkind.html</t>
         </is>
       </c>
     </row>
@@ -4153,22 +4157,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Love And Peace Or Else</t>
+          <t>Here Comes Revenge</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/loveandpeaceorelse.html</t>
+          <t>/lyrics/metallica/herecomesrevenge.html</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4182,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>City Of Blinding Lights</t>
+          <t>Am I Savage?</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/cityofblindinglights.html</t>
+          <t>/lyrics/metallica/amisavage.html</t>
         </is>
       </c>
     </row>
@@ -4203,22 +4207,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>All Because Of You</t>
+          <t>Murder One</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/allbecauseofyou.html</t>
+          <t>/lyrics/metallica/murderone.html</t>
         </is>
       </c>
     </row>
@@ -4228,22 +4232,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A Man And A Woman</t>
+          <t>Spit Out The Bone</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/amanandawoman.html</t>
+          <t>/lyrics/metallica/spitoutthebone.html</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4257,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Crumbs From Your Table</t>
+          <t>Lords Of Summer(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/crumbsfromyourtable.html</t>
+          <t>/lyrics/metallica/lordsofsummer.html</t>
         </is>
       </c>
     </row>
@@ -4278,22 +4282,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>One Step Closer</t>
+          <t>Ronnie Rising Medley(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/onestepcloser.html</t>
+          <t>/lyrics/metallica/ronnierisingmedley.html</t>
         </is>
       </c>
     </row>
@@ -4303,22 +4307,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Original Of The Species</t>
+          <t>When A Blind Man Cries(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/originalofthespecies.html</t>
+          <t>/lyrics/metallica/whenablindmancries.html</t>
         </is>
       </c>
     </row>
@@ -4328,22 +4332,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Yahweh</t>
+          <t>Remember Tomorrow(Deluxe Edition Bonus Track)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "Hardwired... To Self-Destruct" (2016)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/yahweh.html</t>
+          <t>/lyrics/metallica/remembertomorrow.html</t>
         </is>
       </c>
     </row>
@@ -4353,22 +4357,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Fast Cars</t>
+          <t>72 Seasons</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>album: "How To Dismantle An Atomic Bomb" (2004)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/fastcars.html</t>
+          <t>/lyrics/metallica/72seasons.html</t>
         </is>
       </c>
     </row>
@@ -4378,22 +4382,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Levitate</t>
+          <t>Shadows Follow</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/levitate.html</t>
+          <t>/lyrics/metallica/shadowsfollow.html</t>
         </is>
       </c>
     </row>
@@ -4403,22 +4407,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Love You Like Mad</t>
+          <t>Screaming Suicide</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/loveyoulikemad.html</t>
+          <t>/lyrics/metallica/screamingsuicide.html</t>
         </is>
       </c>
     </row>
@@ -4428,22 +4432,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Smile</t>
+          <t>Sleepwalk My Life Away</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/smile.html</t>
+          <t>/lyrics/metallica/sleepwalkmylifeaway.html</t>
         </is>
       </c>
     </row>
@@ -4453,22 +4457,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Flower Child</t>
+          <t>You Must Burn!</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/flowerchild.html</t>
+          <t>/lyrics/metallica/youmustburn.html</t>
         </is>
       </c>
     </row>
@@ -4478,22 +4482,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Beautiful Ghost</t>
+          <t>Lux Ãterna</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/beautifulghost.html</t>
+          <t>/lyrics/metallica/lux-aeterna.html</t>
         </is>
       </c>
     </row>
@@ -4503,22 +4507,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Jesus Christ</t>
+          <t>Crown Of Barbed Wire</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/jesuschrist.html</t>
+          <t>/lyrics/metallica/crownofbarbedwire.html</t>
         </is>
       </c>
     </row>
@@ -4528,22 +4532,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Xanax &amp; Wine</t>
+          <t>Chasing Light</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/xanaxwine.html</t>
+          <t>/lyrics/metallica/chasinglight.html</t>
         </is>
       </c>
     </row>
@@ -4553,22 +4557,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>All Because Of You (Alternative Version)</t>
+          <t>If Darkness Had A Son</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/allbecauseofyoualternativeversion.html</t>
+          <t>/lyrics/metallica/ifdarknesshadason.html</t>
         </is>
       </c>
     </row>
@@ -4578,22 +4582,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Native Son</t>
+          <t>Too Far Gone?</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/nativeson.html</t>
+          <t>/lyrics/metallica/toofargone.html</t>
         </is>
       </c>
     </row>
@@ -4603,22 +4607,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Yahweh (Alternative Version)</t>
+          <t>Room Of Mirrors</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/yahwehalternativeversion.html</t>
+          <t>/lyrics/metallica/roomofmirrors.html</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4632,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sometimes You Cant Make It On Your Own (Alternative Version)</t>
+          <t>Inamorata</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>album: "72 Seasons" (2023)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/sometimesyoucantmakeitonyourownalternativeversion.html</t>
+          <t>/lyrics/metallica/inamorata.html</t>
         </is>
       </c>
     </row>
@@ -4653,22 +4657,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Saturday Night</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/saturdaynight.html</t>
+          <t>/lyrics/metallica/human.html</t>
         </is>
       </c>
     </row>
@@ -4678,22 +4682,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Trash, Trampoline And The Party Girl</t>
+          <t>I Disappear</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/trashtrampolineandthepartygirl.html</t>
+          <t>/lyrics/metallica/idisappear.html</t>
         </is>
       </c>
     </row>
@@ -4703,22 +4707,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Angels Too Tied To The Ground</t>
+          <t>No Leaf Clover</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/angelstootiedtotheground.html</t>
+          <t>/lyrics/metallica/noleafclover.html</t>
         </is>
       </c>
     </row>
@@ -4728,22 +4732,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Wave Of Sorrow</t>
+          <t>The Mechanix</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/waveofsorrow.html</t>
+          <t>/lyrics/metallica/themechanix.html</t>
         </is>
       </c>
     </row>
@@ -4753,22 +4757,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Always</t>
+          <t>The New Song (Death Is Not The End)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/always.html</t>
+          <t>/lyrics/metallica/thenewsongdeathisnottheend.html</t>
         </is>
       </c>
     </row>
@@ -4778,22 +4782,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Summer Rain</t>
+          <t>Vulturus</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/summerrain.html</t>
+          <t>/lyrics/metallica/vulturus.html</t>
         </is>
       </c>
     </row>
@@ -4803,2072 +4807,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Big Girls Are Best</t>
+          <t>We Did It Again</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>U2 Lyrics</t>
+          <t>Metallica Lyrics</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
+          <t>other songs:</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>/lyrics/u2band/biggirlsarebest.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Fast Cars</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/fastcars.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Neon Lights</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>compilation: "Medium, Rare &amp; Remastered" (2009)</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/neonlights.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>No Line On The Horizon</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>album: "No Line On The Horizon" (2009)</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/nolineonthehorizon.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Magnificent</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>album: "No Line On The Horizon" (2009)</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/magnificent.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Moment Of Surrender</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>album: "No Line On The Horizon" (2009)</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/momentofsurrender.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Unknown Caller</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>album: "No Line On The Horizon" (2009)</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/unknowncaller.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Ill Go Crazy If I Dont Go Crazy Tonight</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>album: "No Line On The Horizon" (2009)</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/illgocrazyifidontgocrazytonight.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Get On Your Boots</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>album: "No Line On The Horizon" (2009)</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/getonyourboots.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Stand Up Comedy</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>album: "No Line On The Horizon" (2009)</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/standupcomedy.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Fez - Being Born</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>album: "No Line On The Horizon" (2009)</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/fezbeingborn.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>White As Snow</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>album: "No Line On The Horizon" (2009)</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/whiteassnow.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Breathe</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>album: "No Line On The Horizon" (2009)</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/breathe.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Cedars Of Lebanon</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>album: "No Line On The Horizon" (2009)</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/cedarsoflebanon.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>The Miracle (Of Joey Ramone)</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/themiracleofjoeyramone.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Every Breaking Wave</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/everybreakingwave.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>California (There Is No End To Love)</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/californiathereisnoendtolove.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Song For Someone</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/songforsomeone.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Iris (Hold Me Close)</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/irisholdmeclose.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Volcano</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/volcano.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Raised By Wolves</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/raisedbywolves.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Cedarwood Road</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/cedarwoodroad.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Sleep Like A Baby Tonight</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/sleeplikeababytonight.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>This Is Where You Can Reach Me Now</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/thisiswhereyoucanreachmenow.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>The Troubles</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/thetroubles.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Lucifers Hands(Deluxe Edition Bonus Track)</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/lucifershands.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>The Crystal Ballroom(Deluxe Edition Bonus Track)</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/thecrystalballroom.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>The Troubles (Alternative Version)(Deluxe Edition Bonus Track)</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/thetroublesalternativeversion.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Sleep Like A Baby Tonight (Alternative Mix)(Deluxe Edition Bonus Track)</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/sleeplikeababytonightalternativemix.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Invisible(Hidden Track)</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/invisible.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>The Crystal Ballroom (12" Mix)(Vinyl Bonus Track)</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Innocence" (2014)</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/thecrystalballroom12mix.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Love Is All We Have Left</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/loveisallwehaveleft.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Lights Of Home</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/lightsofhome.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Youre The Best Thing About Me</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/yourethebestthingaboutme.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Get Out Of Your Own Way</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/getoutofyourownway.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>American Soul</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/americansoul.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Summer Of Love</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/summeroflove.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Red Flag Day</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/redflagday.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>The Showman (Little More Better)</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/theshowmanlittlemorebetter.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>The Little Things That Give You Away</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/thelittlethingsthatgiveyouaway.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Landlady</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/landlady.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>The Blackout</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/theblackout.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Love Is Bigger Than Anything In Its Way</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/loveisbiggerthananythinginitsway.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>13 (There Is A Light)</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/13thereisalight.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Ordinary Love (Extraordinary Mix)(Deluxe Edition Bonus Track)</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/ordinaryloveextraordinarymix.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Book Of Your Heart(Deluxe Edition Bonus Track)</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/bookofyourheart.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Lights Of Home (St Peters String Version)(Deluxe Edition Bonus Track)</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/lightsofhomestpetersstringversion.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Youre The Best Thing About Me (U2 vs. Kygo)(Deluxe Edition Bonus Track)</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>album: "Songs Of Experience" (2017)</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/yourethebestthingaboutmeu2vskygo.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>A Celebration</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/acelebration.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Ahimsa</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/ahimsa.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Alex Descends Into Hell For A Bottle Of Milk / Korova 1(from "The Fly" single)</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/alexdescendsintohellforabottleofmilkkorova1.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Another Day</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/anotherday.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Atomic City</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/atomiccity.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Bang A Gong (Get It On)</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/bangagonggetiton.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Boy-Girl</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/boygirl.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Christmas (Baby, Please Come Home)</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/christmasbabypleasecomehome.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Electrical Storm</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/electricalstorm.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Everybody Loves A Winner</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/everybodylovesawinner.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Fortunate Son</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/fortunateson.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Hold Me, Thrill Me, Kiss Me, Kill Me</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/holdmethrillmekissmekillme.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>I Believe In Father Christmas</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/ibelieveinfatherchristmas.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Ive Got You Under My Skin</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/ivegotyouundermyskin.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Lady With The Spinning Head</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/ladywiththespinninghead.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Let Your Love Be Known</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/letyourlovebeknown.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Love Is Bigger Than Anything In Its Way (U2 x Cheat Codes)</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/loveisbiggerthananythinginitswayu2xcheatcodes.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Night And Day</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/nightandday.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Ordinary Love</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/ordinarylove.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Paint It Black</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/paintitblack.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Salome(from "Even Better Than The Real Thing" single)</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/salome.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Satellite Of Love</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/satelliteoflove.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Slow Dancing</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/slowdancing.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Stateless(from "The Million Dollar Hotel" soundtrack)</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/stateless.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>The Ground Beneath Her Feet(from "The Million Dollar Hotel" soundtrack)</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/thegroundbeneathherfeet.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>The Hands That Built America</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/thehandsthatbuiltamerica.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>The Saints Are Coming(from "U218 Singles" album)</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/thesaintsarecoming.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Touch</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/touch.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Treasure (Whatever Happened To Pete The Chop)</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/treasurewhateverhappenedtopetethechop.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Walk On (Ukraine)</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/walkonukraine.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Whats Going On</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/whatsgoingon.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Where Did It All Go Wrong</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/wherediditallgowrong.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Window In The Skies(from "U218 Singles" album)</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/windowintheskies.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Winter(from "Linear" soundtrack)</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/winter.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Your Song Saved My Life(from "Sing 2" soundtrack)</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>U2 Lyrics</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>other songs:</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>/lyrics/u2band/yoursongsavedmylife.html</t>
+          <t>/lyrics/metallica/wediditagain.html</t>
         </is>
       </c>
     </row>
